--- a/MyCProgram/近期工作/1.2/副本Function List_V1.2-0310--DEV.xlsx
+++ b/MyCProgram/近期工作/1.2/副本Function List_V1.2-0310--DEV.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WangFugui\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\GitHub\近期工作\1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16605" windowHeight="6300" tabRatio="671" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16605" windowHeight="6300" tabRatio="671" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Editing" sheetId="14" state="hidden" r:id="rId1"/>
@@ -45,20 +45,20 @@
     <definedName name="_2013_12">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Edius Plug-in'!$A$3:$AH$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FCP Plug-in'!$A$3:$AH$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">HIVE!$A$3:$N$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">INGEST!$A$3:$N$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ML!$A$3:$N$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">MPC!$A$3:$N$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">MSV!$A$3:$N$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'NOVA&amp;JOVE'!$A$3:$N$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">PL!$A$3:$N$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">HIVE!$A$3:$O$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">INGEST!$A$3:$O$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ML!$A$3:$O$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">MPC!$A$3:$O$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">MSV!$A$3:$O$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'NOVA&amp;JOVE'!$A$3:$O$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">PL!$A$3:$O$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">V1.2!$A$3:$M$69</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">WEB!$A$3:$O$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">WEB!$A$3:$P$19</definedName>
     <definedName name="VSTS_ValidationRange_494f428301594a7d84834a706189daa9" hidden="1">[1]VSTS_ValidationWS_1!$Z$1:$Z$12</definedName>
     <definedName name="VSTS_ValidationRange_5e53b895dbb0486791fffc10e9acba11" hidden="1">[2]VSTS_ValidationWS_1!$AA$1:$AA$1044</definedName>
     <definedName name="VSTS_ValidationRange_a4bade7b645e439886b3c18c798317cb" hidden="1">[2]VSTS_ValidationWS_1!$Z$1:$Z$12</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -445,7 +445,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="625">
   <si>
     <t>Provide online help  on each module window</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4704,6 +4704,88 @@
   </si>
   <si>
     <t>肖扬</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Status</t>
+  </si>
+  <si>
+    <t>Current Status</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. The logs for docker services are printed in English
+• Logs for all windows applications and services move from VHD to ProgramData
+• Logs for all docker services support to search and view on Dashboard
+• Logs for all docker services support to delete on Dashboard</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Status</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>预研还未结束</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -5235,7 +5317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="299">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6010,6 +6092,33 @@
     <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6019,9 +6128,6 @@
     <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6031,11 +6137,17 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6052,18 +6164,6 @@
     <xf numFmtId="176" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="9" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6073,15 +6173,24 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="39" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="29" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6100,17 +6209,11 @@
     <xf numFmtId="176" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="39" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="24" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -11922,7 +12025,7 @@
     </row>
     <row r="3" spans="1:31" ht="15.75">
       <c r="A3" s="112"/>
-      <c r="B3" s="260" t="s">
+      <c r="B3" s="269" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="39" t="s">
@@ -11944,7 +12047,7 @@
     </row>
     <row r="4" spans="1:31" ht="15.75">
       <c r="A4" s="112"/>
-      <c r="B4" s="260"/>
+      <c r="B4" s="269"/>
       <c r="C4" s="37" t="s">
         <v>24</v>
       </c>
@@ -11964,7 +12067,7 @@
     </row>
     <row r="5" spans="1:31" ht="15.75">
       <c r="A5" s="112"/>
-      <c r="B5" s="260"/>
+      <c r="B5" s="269"/>
       <c r="C5" s="39" t="s">
         <v>45</v>
       </c>
@@ -11984,7 +12087,7 @@
     </row>
     <row r="6" spans="1:31" ht="15.75">
       <c r="A6" s="112"/>
-      <c r="B6" s="260"/>
+      <c r="B6" s="269"/>
       <c r="C6" s="39" t="s">
         <v>46</v>
       </c>
@@ -12004,7 +12107,7 @@
     </row>
     <row r="7" spans="1:31" ht="15.75">
       <c r="A7" s="112"/>
-      <c r="B7" s="260"/>
+      <c r="B7" s="269"/>
       <c r="C7" s="39" t="s">
         <v>47</v>
       </c>
@@ -12024,7 +12127,7 @@
     </row>
     <row r="8" spans="1:31" ht="15.75">
       <c r="A8" s="112"/>
-      <c r="B8" s="260"/>
+      <c r="B8" s="269"/>
       <c r="C8" s="39" t="s">
         <v>48</v>
       </c>
@@ -12044,7 +12147,7 @@
     </row>
     <row r="9" spans="1:31" ht="15.75">
       <c r="A9" s="112"/>
-      <c r="B9" s="261" t="s">
+      <c r="B9" s="264" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="39" t="s">
@@ -12066,7 +12169,7 @@
     </row>
     <row r="10" spans="1:31" ht="15.75">
       <c r="A10" s="112"/>
-      <c r="B10" s="261"/>
+      <c r="B10" s="264"/>
       <c r="C10" s="39" t="s">
         <v>51</v>
       </c>
@@ -12086,7 +12189,7 @@
     </row>
     <row r="11" spans="1:31" ht="15.75">
       <c r="A11" s="112"/>
-      <c r="B11" s="261"/>
+      <c r="B11" s="264"/>
       <c r="C11" s="39" t="s">
         <v>52</v>
       </c>
@@ -12106,7 +12209,7 @@
     </row>
     <row r="12" spans="1:31" ht="15.75">
       <c r="A12" s="112"/>
-      <c r="B12" s="261"/>
+      <c r="B12" s="264"/>
       <c r="C12" s="39" t="s">
         <v>53</v>
       </c>
@@ -12126,7 +12229,7 @@
     </row>
     <row r="13" spans="1:31" ht="15.75">
       <c r="A13" s="112"/>
-      <c r="B13" s="261"/>
+      <c r="B13" s="264"/>
       <c r="C13" s="39" t="s">
         <v>54</v>
       </c>
@@ -12146,7 +12249,7 @@
     </row>
     <row r="14" spans="1:31" ht="15.75">
       <c r="A14" s="112"/>
-      <c r="B14" s="261"/>
+      <c r="B14" s="264"/>
       <c r="C14" s="39" t="s">
         <v>55</v>
       </c>
@@ -12166,7 +12269,7 @@
     </row>
     <row r="15" spans="1:31" ht="15.75">
       <c r="A15" s="112"/>
-      <c r="B15" s="261"/>
+      <c r="B15" s="264"/>
       <c r="C15" s="39" t="s">
         <v>56</v>
       </c>
@@ -12186,7 +12289,7 @@
     </row>
     <row r="16" spans="1:31" ht="15.75">
       <c r="A16" s="112"/>
-      <c r="B16" s="261"/>
+      <c r="B16" s="264"/>
       <c r="C16" s="39" t="s">
         <v>57</v>
       </c>
@@ -12206,7 +12309,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75">
       <c r="A17" s="112"/>
-      <c r="B17" s="258" t="s">
+      <c r="B17" s="267" t="s">
         <v>58</v>
       </c>
       <c r="C17" s="39" t="s">
@@ -12228,7 +12331,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75">
       <c r="A18" s="112"/>
-      <c r="B18" s="258"/>
+      <c r="B18" s="267"/>
       <c r="C18" s="39" t="s">
         <v>59</v>
       </c>
@@ -12248,7 +12351,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75">
       <c r="A19" s="112"/>
-      <c r="B19" s="258"/>
+      <c r="B19" s="267"/>
       <c r="C19" s="39" t="s">
         <v>60</v>
       </c>
@@ -12268,7 +12371,7 @@
     </row>
     <row r="20" spans="1:12" ht="15.75">
       <c r="A20" s="112"/>
-      <c r="B20" s="258"/>
+      <c r="B20" s="267"/>
       <c r="C20" s="39" t="s">
         <v>61</v>
       </c>
@@ -12288,7 +12391,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75">
       <c r="A21" s="112"/>
-      <c r="B21" s="258"/>
+      <c r="B21" s="267"/>
       <c r="C21" s="39" t="s">
         <v>62</v>
       </c>
@@ -12308,7 +12411,7 @@
     </row>
     <row r="22" spans="1:12" ht="15.75">
       <c r="A22" s="112"/>
-      <c r="B22" s="262" t="s">
+      <c r="B22" s="270" t="s">
         <v>63</v>
       </c>
       <c r="C22" s="39" t="s">
@@ -12330,7 +12433,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75">
       <c r="A23" s="112"/>
-      <c r="B23" s="263"/>
+      <c r="B23" s="271"/>
       <c r="C23" s="39" t="s">
         <v>5</v>
       </c>
@@ -12350,7 +12453,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75">
       <c r="A24" s="112"/>
-      <c r="B24" s="263"/>
+      <c r="B24" s="271"/>
       <c r="C24" s="39" t="s">
         <v>6</v>
       </c>
@@ -12370,7 +12473,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75">
       <c r="A25" s="112"/>
-      <c r="B25" s="263"/>
+      <c r="B25" s="271"/>
       <c r="C25" s="39" t="s">
         <v>7</v>
       </c>
@@ -12390,7 +12493,7 @@
     </row>
     <row r="26" spans="1:12" ht="78.75">
       <c r="A26" s="112"/>
-      <c r="B26" s="263"/>
+      <c r="B26" s="271"/>
       <c r="C26" s="39" t="s">
         <v>8</v>
       </c>
@@ -12410,7 +12513,7 @@
     </row>
     <row r="27" spans="1:12" ht="78.75">
       <c r="A27" s="112"/>
-      <c r="B27" s="263"/>
+      <c r="B27" s="271"/>
       <c r="C27" s="39" t="s">
         <v>9</v>
       </c>
@@ -12430,7 +12533,7 @@
     </row>
     <row r="28" spans="1:12" ht="15.75">
       <c r="A28" s="112"/>
-      <c r="B28" s="263"/>
+      <c r="B28" s="271"/>
       <c r="C28" s="39" t="s">
         <v>10</v>
       </c>
@@ -12450,7 +12553,7 @@
     </row>
     <row r="29" spans="1:12" ht="15.75">
       <c r="A29" s="112"/>
-      <c r="B29" s="263"/>
+      <c r="B29" s="271"/>
       <c r="C29" s="39" t="s">
         <v>11</v>
       </c>
@@ -12470,7 +12573,7 @@
     </row>
     <row r="30" spans="1:12" ht="15.75">
       <c r="A30" s="112"/>
-      <c r="B30" s="263"/>
+      <c r="B30" s="271"/>
       <c r="C30" s="39" t="s">
         <v>12</v>
       </c>
@@ -12490,7 +12593,7 @@
     </row>
     <row r="31" spans="1:12" ht="15.75">
       <c r="A31" s="112"/>
-      <c r="B31" s="263"/>
+      <c r="B31" s="271"/>
       <c r="C31" s="39" t="s">
         <v>13</v>
       </c>
@@ -12510,7 +12613,7 @@
     </row>
     <row r="32" spans="1:12" ht="31.5">
       <c r="A32" s="112"/>
-      <c r="B32" s="264"/>
+      <c r="B32" s="272"/>
       <c r="C32" s="39" t="s">
         <v>14</v>
       </c>
@@ -12530,7 +12633,7 @@
     </row>
     <row r="33" spans="1:12" ht="15.75">
       <c r="A33" s="112"/>
-      <c r="B33" s="262" t="s">
+      <c r="B33" s="270" t="s">
         <v>64</v>
       </c>
       <c r="C33" s="39" t="s">
@@ -12552,7 +12655,7 @@
     </row>
     <row r="34" spans="1:12" ht="31.5">
       <c r="A34" s="112"/>
-      <c r="B34" s="263"/>
+      <c r="B34" s="271"/>
       <c r="C34" s="39" t="s">
         <v>16</v>
       </c>
@@ -12572,7 +12675,7 @@
     </row>
     <row r="35" spans="1:12" ht="15.75">
       <c r="A35" s="112"/>
-      <c r="B35" s="263"/>
+      <c r="B35" s="271"/>
       <c r="C35" s="39" t="s">
         <v>17</v>
       </c>
@@ -12592,7 +12695,7 @@
     </row>
     <row r="36" spans="1:12" ht="31.5">
       <c r="A36" s="112"/>
-      <c r="B36" s="263"/>
+      <c r="B36" s="271"/>
       <c r="C36" s="39" t="s">
         <v>18</v>
       </c>
@@ -12612,7 +12715,7 @@
     </row>
     <row r="37" spans="1:12" ht="78.75">
       <c r="A37" s="112"/>
-      <c r="B37" s="263"/>
+      <c r="B37" s="271"/>
       <c r="C37" s="39" t="s">
         <v>8</v>
       </c>
@@ -12632,7 +12735,7 @@
     </row>
     <row r="38" spans="1:12" ht="78.75">
       <c r="A38" s="112"/>
-      <c r="B38" s="263"/>
+      <c r="B38" s="271"/>
       <c r="C38" s="39" t="s">
         <v>9</v>
       </c>
@@ -12652,7 +12755,7 @@
     </row>
     <row r="39" spans="1:12" ht="15.75">
       <c r="A39" s="112"/>
-      <c r="B39" s="263"/>
+      <c r="B39" s="271"/>
       <c r="C39" s="39" t="s">
         <v>10</v>
       </c>
@@ -12672,7 +12775,7 @@
     </row>
     <row r="40" spans="1:12" ht="15.75">
       <c r="A40" s="112"/>
-      <c r="B40" s="263"/>
+      <c r="B40" s="271"/>
       <c r="C40" s="39" t="s">
         <v>11</v>
       </c>
@@ -12692,7 +12795,7 @@
     </row>
     <row r="41" spans="1:12" ht="15.75">
       <c r="A41" s="112"/>
-      <c r="B41" s="263"/>
+      <c r="B41" s="271"/>
       <c r="C41" s="39" t="s">
         <v>12</v>
       </c>
@@ -12712,7 +12815,7 @@
     </row>
     <row r="42" spans="1:12" ht="15.75">
       <c r="A42" s="112"/>
-      <c r="B42" s="264"/>
+      <c r="B42" s="272"/>
       <c r="C42" s="39" t="s">
         <v>13</v>
       </c>
@@ -12732,7 +12835,7 @@
     </row>
     <row r="43" spans="1:12" ht="15.75">
       <c r="A43" s="112"/>
-      <c r="B43" s="258" t="s">
+      <c r="B43" s="267" t="s">
         <v>65</v>
       </c>
       <c r="C43" s="39" t="s">
@@ -12754,7 +12857,7 @@
     </row>
     <row r="44" spans="1:12" ht="15.75">
       <c r="A44" s="112"/>
-      <c r="B44" s="258"/>
+      <c r="B44" s="267"/>
       <c r="C44" s="39" t="s">
         <v>67</v>
       </c>
@@ -12774,7 +12877,7 @@
     </row>
     <row r="45" spans="1:12" ht="15.75">
       <c r="A45" s="112"/>
-      <c r="B45" s="258"/>
+      <c r="B45" s="267"/>
       <c r="C45" s="39" t="s">
         <v>68</v>
       </c>
@@ -12794,7 +12897,7 @@
     </row>
     <row r="46" spans="1:12" ht="15.75">
       <c r="A46" s="112"/>
-      <c r="B46" s="258"/>
+      <c r="B46" s="267"/>
       <c r="C46" s="39" t="s">
         <v>69</v>
       </c>
@@ -12814,7 +12917,7 @@
     </row>
     <row r="47" spans="1:12" ht="15.75">
       <c r="A47" s="112"/>
-      <c r="B47" s="258" t="s">
+      <c r="B47" s="267" t="s">
         <v>70</v>
       </c>
       <c r="C47" s="39" t="s">
@@ -12836,7 +12939,7 @@
     </row>
     <row r="48" spans="1:12" ht="15.75">
       <c r="A48" s="112"/>
-      <c r="B48" s="258"/>
+      <c r="B48" s="267"/>
       <c r="C48" s="39" t="s">
         <v>72</v>
       </c>
@@ -12856,7 +12959,7 @@
     </row>
     <row r="49" spans="1:12" ht="15.75">
       <c r="A49" s="112"/>
-      <c r="B49" s="258"/>
+      <c r="B49" s="267"/>
       <c r="C49" s="39" t="s">
         <v>73</v>
       </c>
@@ -12876,7 +12979,7 @@
     </row>
     <row r="50" spans="1:12" ht="15.75">
       <c r="A50" s="112"/>
-      <c r="B50" s="258" t="s">
+      <c r="B50" s="267" t="s">
         <v>74</v>
       </c>
       <c r="C50" s="39" t="s">
@@ -12898,7 +13001,7 @@
     </row>
     <row r="51" spans="1:12" ht="15.75">
       <c r="A51" s="112"/>
-      <c r="B51" s="258"/>
+      <c r="B51" s="267"/>
       <c r="C51" s="39" t="s">
         <v>76</v>
       </c>
@@ -12918,7 +13021,7 @@
     </row>
     <row r="52" spans="1:12" ht="15.75">
       <c r="A52" s="112"/>
-      <c r="B52" s="258"/>
+      <c r="B52" s="267"/>
       <c r="C52" s="39" t="s">
         <v>77</v>
       </c>
@@ -12938,7 +13041,7 @@
     </row>
     <row r="53" spans="1:12" ht="15.75">
       <c r="A53" s="112"/>
-      <c r="B53" s="258"/>
+      <c r="B53" s="267"/>
       <c r="C53" s="39" t="s">
         <v>78</v>
       </c>
@@ -12958,7 +13061,7 @@
     </row>
     <row r="54" spans="1:12" ht="15.75">
       <c r="A54" s="112"/>
-      <c r="B54" s="258"/>
+      <c r="B54" s="267"/>
       <c r="C54" s="39" t="s">
         <v>79</v>
       </c>
@@ -12978,7 +13081,7 @@
     </row>
     <row r="55" spans="1:12" ht="31.5">
       <c r="A55" s="112"/>
-      <c r="B55" s="259" t="s">
+      <c r="B55" s="268" t="s">
         <v>80</v>
       </c>
       <c r="C55" s="41" t="s">
@@ -13000,7 +13103,7 @@
     </row>
     <row r="56" spans="1:12" ht="15.75">
       <c r="A56" s="112"/>
-      <c r="B56" s="259"/>
+      <c r="B56" s="268"/>
       <c r="C56" s="41" t="s">
         <v>82</v>
       </c>
@@ -13020,7 +13123,7 @@
     </row>
     <row r="57" spans="1:12" ht="15.75">
       <c r="A57" s="112"/>
-      <c r="B57" s="259"/>
+      <c r="B57" s="268"/>
       <c r="C57" s="41" t="s">
         <v>83</v>
       </c>
@@ -13112,7 +13215,7 @@
       <c r="A61" s="113">
         <v>3</v>
       </c>
-      <c r="B61" s="259" t="s">
+      <c r="B61" s="268" t="s">
         <v>90</v>
       </c>
       <c r="C61" s="41" t="s">
@@ -13136,7 +13239,7 @@
       <c r="A62" s="113">
         <v>4</v>
       </c>
-      <c r="B62" s="259"/>
+      <c r="B62" s="268"/>
       <c r="C62" s="41" t="s">
         <v>92</v>
       </c>
@@ -13158,7 +13261,7 @@
       <c r="A63" s="113">
         <v>5</v>
       </c>
-      <c r="B63" s="259"/>
+      <c r="B63" s="268"/>
       <c r="C63" s="41" t="s">
         <v>93</v>
       </c>
@@ -13180,7 +13283,7 @@
       <c r="A64" s="113">
         <v>6</v>
       </c>
-      <c r="B64" s="261" t="s">
+      <c r="B64" s="264" t="s">
         <v>94</v>
       </c>
       <c r="C64" s="41" t="s">
@@ -13204,7 +13307,7 @@
       <c r="A65" s="113">
         <v>7</v>
       </c>
-      <c r="B65" s="261"/>
+      <c r="B65" s="264"/>
       <c r="C65" s="41" t="s">
         <v>96</v>
       </c>
@@ -13226,7 +13329,7 @@
       <c r="A66" s="113">
         <v>8</v>
       </c>
-      <c r="B66" s="261"/>
+      <c r="B66" s="264"/>
       <c r="C66" s="41" t="s">
         <v>97</v>
       </c>
@@ -13248,7 +13351,7 @@
       <c r="A67" s="113">
         <v>9</v>
       </c>
-      <c r="B67" s="261"/>
+      <c r="B67" s="264"/>
       <c r="C67" s="41" t="s">
         <v>98</v>
       </c>
@@ -13270,7 +13373,7 @@
       <c r="A68" s="113">
         <v>10</v>
       </c>
-      <c r="B68" s="261"/>
+      <c r="B68" s="264"/>
       <c r="C68" s="41" t="s">
         <v>99</v>
       </c>
@@ -13292,7 +13395,7 @@
       <c r="A69" s="113">
         <v>11</v>
       </c>
-      <c r="B69" s="261"/>
+      <c r="B69" s="264"/>
       <c r="C69" s="41" t="s">
         <v>100</v>
       </c>
@@ -13314,7 +13417,7 @@
       <c r="A70" s="113">
         <v>12</v>
       </c>
-      <c r="B70" s="261"/>
+      <c r="B70" s="264"/>
       <c r="C70" s="41" t="s">
         <v>101</v>
       </c>
@@ -13336,7 +13439,7 @@
       <c r="A71" s="113">
         <v>13</v>
       </c>
-      <c r="B71" s="261"/>
+      <c r="B71" s="264"/>
       <c r="C71" s="41" t="s">
         <v>102</v>
       </c>
@@ -13358,7 +13461,7 @@
       <c r="A72" s="113">
         <v>14</v>
       </c>
-      <c r="B72" s="261"/>
+      <c r="B72" s="264"/>
       <c r="C72" s="41" t="s">
         <v>103</v>
       </c>
@@ -13380,7 +13483,7 @@
       <c r="A73" s="113">
         <v>15</v>
       </c>
-      <c r="B73" s="261"/>
+      <c r="B73" s="264"/>
       <c r="C73" s="41" t="s">
         <v>104</v>
       </c>
@@ -13402,7 +13505,7 @@
       <c r="A74" s="113">
         <v>16</v>
       </c>
-      <c r="B74" s="261"/>
+      <c r="B74" s="264"/>
       <c r="C74" s="41" t="s">
         <v>105</v>
       </c>
@@ -13424,7 +13527,7 @@
       <c r="A75" s="113">
         <v>17</v>
       </c>
-      <c r="B75" s="261"/>
+      <c r="B75" s="264"/>
       <c r="C75" s="41" t="s">
         <v>106</v>
       </c>
@@ -13446,7 +13549,7 @@
       <c r="A76" s="113">
         <v>18</v>
       </c>
-      <c r="B76" s="261"/>
+      <c r="B76" s="264"/>
       <c r="C76" s="41" t="s">
         <v>107</v>
       </c>
@@ -13468,7 +13571,7 @@
       <c r="A77" s="113">
         <v>19</v>
       </c>
-      <c r="B77" s="261"/>
+      <c r="B77" s="264"/>
       <c r="C77" s="41" t="s">
         <v>108</v>
       </c>
@@ -13490,7 +13593,7 @@
       <c r="A78" s="113">
         <v>20</v>
       </c>
-      <c r="B78" s="261"/>
+      <c r="B78" s="264"/>
       <c r="C78" s="41" t="s">
         <v>109</v>
       </c>
@@ -13512,7 +13615,7 @@
       <c r="A79" s="113">
         <v>21</v>
       </c>
-      <c r="B79" s="261"/>
+      <c r="B79" s="264"/>
       <c r="C79" s="42" t="s">
         <v>110</v>
       </c>
@@ -13534,7 +13637,7 @@
       <c r="A80" s="113">
         <v>22</v>
       </c>
-      <c r="B80" s="261" t="s">
+      <c r="B80" s="264" t="s">
         <v>111</v>
       </c>
       <c r="C80" s="42" t="s">
@@ -13558,7 +13661,7 @@
       <c r="A81" s="113">
         <v>23</v>
       </c>
-      <c r="B81" s="261"/>
+      <c r="B81" s="264"/>
       <c r="C81" s="42" t="s">
         <v>113</v>
       </c>
@@ -13580,7 +13683,7 @@
       <c r="A82" s="113">
         <v>24</v>
       </c>
-      <c r="B82" s="261"/>
+      <c r="B82" s="264"/>
       <c r="C82" s="42" t="s">
         <v>114</v>
       </c>
@@ -13602,7 +13705,7 @@
       <c r="A83" s="113">
         <v>25</v>
       </c>
-      <c r="B83" s="261"/>
+      <c r="B83" s="264"/>
       <c r="C83" s="42" t="s">
         <v>115</v>
       </c>
@@ -13624,7 +13727,7 @@
       <c r="A84" s="113">
         <v>26</v>
       </c>
-      <c r="B84" s="261"/>
+      <c r="B84" s="264"/>
       <c r="C84" s="42" t="s">
         <v>116</v>
       </c>
@@ -13646,7 +13749,7 @@
       <c r="A85" s="113">
         <v>27</v>
       </c>
-      <c r="B85" s="261"/>
+      <c r="B85" s="264"/>
       <c r="C85" s="42" t="s">
         <v>117</v>
       </c>
@@ -13668,7 +13771,7 @@
       <c r="A86" s="113">
         <v>28</v>
       </c>
-      <c r="B86" s="261"/>
+      <c r="B86" s="264"/>
       <c r="C86" s="42" t="s">
         <v>118</v>
       </c>
@@ -13690,7 +13793,7 @@
       <c r="A87" s="113">
         <v>29</v>
       </c>
-      <c r="B87" s="261"/>
+      <c r="B87" s="264"/>
       <c r="C87" s="42" t="s">
         <v>119</v>
       </c>
@@ -13712,7 +13815,7 @@
       <c r="A88" s="113">
         <v>30</v>
       </c>
-      <c r="B88" s="261" t="s">
+      <c r="B88" s="264" t="s">
         <v>120</v>
       </c>
       <c r="C88" s="42" t="s">
@@ -13736,7 +13839,7 @@
       <c r="A89" s="113">
         <v>31</v>
       </c>
-      <c r="B89" s="261"/>
+      <c r="B89" s="264"/>
       <c r="C89" s="42" t="s">
         <v>122</v>
       </c>
@@ -13758,7 +13861,7 @@
       <c r="A90" s="113">
         <v>32</v>
       </c>
-      <c r="B90" s="261"/>
+      <c r="B90" s="264"/>
       <c r="C90" s="42" t="s">
         <v>123</v>
       </c>
@@ -13780,7 +13883,7 @@
       <c r="A91" s="113">
         <v>33</v>
       </c>
-      <c r="B91" s="261"/>
+      <c r="B91" s="264"/>
       <c r="C91" s="42" t="s">
         <v>124</v>
       </c>
@@ -13802,7 +13905,7 @@
       <c r="A92" s="113">
         <v>34</v>
       </c>
-      <c r="B92" s="261"/>
+      <c r="B92" s="264"/>
       <c r="C92" s="42" t="s">
         <v>125</v>
       </c>
@@ -13824,7 +13927,7 @@
       <c r="A93" s="113">
         <v>35</v>
       </c>
-      <c r="B93" s="261"/>
+      <c r="B93" s="264"/>
       <c r="C93" s="42" t="s">
         <v>126</v>
       </c>
@@ -13846,7 +13949,7 @@
       <c r="A94" s="113">
         <v>36</v>
       </c>
-      <c r="B94" s="261"/>
+      <c r="B94" s="264"/>
       <c r="C94" s="42" t="s">
         <v>127</v>
       </c>
@@ -13868,7 +13971,7 @@
       <c r="A95" s="113">
         <v>37</v>
       </c>
-      <c r="B95" s="261"/>
+      <c r="B95" s="264"/>
       <c r="C95" s="42" t="s">
         <v>128</v>
       </c>
@@ -13890,7 +13993,7 @@
       <c r="A96" s="113">
         <v>38</v>
       </c>
-      <c r="B96" s="261"/>
+      <c r="B96" s="264"/>
       <c r="C96" s="42" t="s">
         <v>129</v>
       </c>
@@ -13912,7 +14015,7 @@
       <c r="A97" s="113">
         <v>39</v>
       </c>
-      <c r="B97" s="261" t="s">
+      <c r="B97" s="264" t="s">
         <v>130</v>
       </c>
       <c r="C97" s="42" t="s">
@@ -13936,7 +14039,7 @@
       <c r="A98" s="113">
         <v>40</v>
       </c>
-      <c r="B98" s="261"/>
+      <c r="B98" s="264"/>
       <c r="C98" s="42" t="s">
         <v>132</v>
       </c>
@@ -13958,7 +14061,7 @@
       <c r="A99" s="113">
         <v>41</v>
       </c>
-      <c r="B99" s="261"/>
+      <c r="B99" s="264"/>
       <c r="C99" s="42" t="s">
         <v>133</v>
       </c>
@@ -13980,7 +14083,7 @@
       <c r="A100" s="113">
         <v>42</v>
       </c>
-      <c r="B100" s="261"/>
+      <c r="B100" s="264"/>
       <c r="C100" s="42" t="s">
         <v>134</v>
       </c>
@@ -14002,7 +14105,7 @@
       <c r="A101" s="113">
         <v>43</v>
       </c>
-      <c r="B101" s="261"/>
+      <c r="B101" s="264"/>
       <c r="C101" s="42" t="s">
         <v>135</v>
       </c>
@@ -14024,7 +14127,7 @@
       <c r="A102" s="113">
         <v>44</v>
       </c>
-      <c r="B102" s="261"/>
+      <c r="B102" s="264"/>
       <c r="C102" s="42" t="s">
         <v>136</v>
       </c>
@@ -14046,7 +14149,7 @@
       <c r="A103" s="113">
         <v>45</v>
       </c>
-      <c r="B103" s="261"/>
+      <c r="B103" s="264"/>
       <c r="C103" s="42" t="s">
         <v>137</v>
       </c>
@@ -14068,7 +14171,7 @@
       <c r="A104" s="113">
         <v>46</v>
       </c>
-      <c r="B104" s="261"/>
+      <c r="B104" s="264"/>
       <c r="C104" s="42" t="s">
         <v>138</v>
       </c>
@@ -14090,7 +14193,7 @@
       <c r="A105" s="113">
         <v>47</v>
       </c>
-      <c r="B105" s="261"/>
+      <c r="B105" s="264"/>
       <c r="C105" s="42" t="s">
         <v>139</v>
       </c>
@@ -14112,7 +14215,7 @@
       <c r="A106" s="113">
         <v>48</v>
       </c>
-      <c r="B106" s="261" t="s">
+      <c r="B106" s="264" t="s">
         <v>140</v>
       </c>
       <c r="C106" s="42" t="s">
@@ -14136,7 +14239,7 @@
       <c r="A107" s="113">
         <v>49</v>
       </c>
-      <c r="B107" s="261"/>
+      <c r="B107" s="264"/>
       <c r="C107" s="42" t="s">
         <v>142</v>
       </c>
@@ -14158,7 +14261,7 @@
       <c r="A108" s="113">
         <v>50</v>
       </c>
-      <c r="B108" s="261"/>
+      <c r="B108" s="264"/>
       <c r="C108" s="42" t="s">
         <v>143</v>
       </c>
@@ -14180,7 +14283,7 @@
       <c r="A109" s="113">
         <v>51</v>
       </c>
-      <c r="B109" s="261"/>
+      <c r="B109" s="264"/>
       <c r="C109" s="42" t="s">
         <v>144</v>
       </c>
@@ -14202,7 +14305,7 @@
       <c r="A110" s="113">
         <v>52</v>
       </c>
-      <c r="B110" s="261"/>
+      <c r="B110" s="264"/>
       <c r="C110" s="42" t="s">
         <v>145</v>
       </c>
@@ -14224,7 +14327,7 @@
       <c r="A111" s="113">
         <v>53</v>
       </c>
-      <c r="B111" s="261"/>
+      <c r="B111" s="264"/>
       <c r="C111" s="42" t="s">
         <v>146</v>
       </c>
@@ -14246,7 +14349,7 @@
       <c r="A112" s="113">
         <v>54</v>
       </c>
-      <c r="B112" s="261"/>
+      <c r="B112" s="264"/>
       <c r="C112" s="42" t="s">
         <v>147</v>
       </c>
@@ -14268,7 +14371,7 @@
       <c r="A113" s="113">
         <v>55</v>
       </c>
-      <c r="B113" s="261"/>
+      <c r="B113" s="264"/>
       <c r="C113" s="42" t="s">
         <v>148</v>
       </c>
@@ -14290,7 +14393,7 @@
       <c r="A114" s="113">
         <v>56</v>
       </c>
-      <c r="B114" s="261"/>
+      <c r="B114" s="264"/>
       <c r="C114" s="42" t="s">
         <v>149</v>
       </c>
@@ -14312,7 +14415,7 @@
       <c r="A115" s="113">
         <v>57</v>
       </c>
-      <c r="B115" s="261"/>
+      <c r="B115" s="264"/>
       <c r="C115" s="42" t="s">
         <v>150</v>
       </c>
@@ -14334,7 +14437,7 @@
       <c r="A116" s="113">
         <v>58</v>
       </c>
-      <c r="B116" s="261"/>
+      <c r="B116" s="264"/>
       <c r="C116" s="42" t="s">
         <v>151</v>
       </c>
@@ -14356,7 +14459,7 @@
       <c r="A117" s="113">
         <v>59</v>
       </c>
-      <c r="B117" s="261" t="s">
+      <c r="B117" s="264" t="s">
         <v>152</v>
       </c>
       <c r="C117" s="42" t="s">
@@ -14380,7 +14483,7 @@
       <c r="A118" s="113">
         <v>60</v>
       </c>
-      <c r="B118" s="261"/>
+      <c r="B118" s="264"/>
       <c r="C118" s="42" t="s">
         <v>154</v>
       </c>
@@ -14402,7 +14505,7 @@
       <c r="A119" s="113">
         <v>61</v>
       </c>
-      <c r="B119" s="261"/>
+      <c r="B119" s="264"/>
       <c r="C119" s="42" t="s">
         <v>155</v>
       </c>
@@ -14424,7 +14527,7 @@
       <c r="A120" s="113">
         <v>62</v>
       </c>
-      <c r="B120" s="261"/>
+      <c r="B120" s="264"/>
       <c r="C120" s="42" t="s">
         <v>149</v>
       </c>
@@ -14446,7 +14549,7 @@
       <c r="A121" s="113">
         <v>63</v>
       </c>
-      <c r="B121" s="261" t="s">
+      <c r="B121" s="264" t="s">
         <v>156</v>
       </c>
       <c r="C121" s="42" t="s">
@@ -14470,7 +14573,7 @@
       <c r="A122" s="113">
         <v>64</v>
       </c>
-      <c r="B122" s="261"/>
+      <c r="B122" s="264"/>
       <c r="C122" s="42" t="s">
         <v>158</v>
       </c>
@@ -14492,7 +14595,7 @@
       <c r="A123" s="113">
         <v>65</v>
       </c>
-      <c r="B123" s="261" t="s">
+      <c r="B123" s="264" t="s">
         <v>20</v>
       </c>
       <c r="C123" s="42" t="s">
@@ -14516,7 +14619,7 @@
       <c r="A124" s="113">
         <v>66</v>
       </c>
-      <c r="B124" s="261"/>
+      <c r="B124" s="264"/>
       <c r="C124" s="42" t="s">
         <v>160</v>
       </c>
@@ -14538,7 +14641,7 @@
       <c r="A125" s="113">
         <v>67</v>
       </c>
-      <c r="B125" s="261"/>
+      <c r="B125" s="264"/>
       <c r="C125" s="42" t="s">
         <v>161</v>
       </c>
@@ -14560,7 +14663,7 @@
       <c r="A126" s="113">
         <v>68</v>
       </c>
-      <c r="B126" s="261"/>
+      <c r="B126" s="264"/>
       <c r="C126" s="42" t="s">
         <v>162</v>
       </c>
@@ -14582,7 +14685,7 @@
       <c r="A127" s="113">
         <v>69</v>
       </c>
-      <c r="B127" s="261" t="s">
+      <c r="B127" s="264" t="s">
         <v>19</v>
       </c>
       <c r="C127" s="42" t="s">
@@ -14606,7 +14709,7 @@
       <c r="A128" s="113">
         <v>70</v>
       </c>
-      <c r="B128" s="261"/>
+      <c r="B128" s="264"/>
       <c r="C128" s="42" t="s">
         <v>164</v>
       </c>
@@ -14628,7 +14731,7 @@
       <c r="A129" s="113">
         <v>71</v>
       </c>
-      <c r="B129" s="261"/>
+      <c r="B129" s="264"/>
       <c r="C129" s="42" t="s">
         <v>165</v>
       </c>
@@ -14650,7 +14753,7 @@
       <c r="A130" s="113">
         <v>72</v>
       </c>
-      <c r="B130" s="261" t="s">
+      <c r="B130" s="264" t="s">
         <v>166</v>
       </c>
       <c r="C130" s="42" t="s">
@@ -14674,7 +14777,7 @@
       <c r="A131" s="113">
         <v>73</v>
       </c>
-      <c r="B131" s="261"/>
+      <c r="B131" s="264"/>
       <c r="C131" s="42" t="s">
         <v>168</v>
       </c>
@@ -14696,7 +14799,7 @@
       <c r="A132" s="113">
         <v>74</v>
       </c>
-      <c r="B132" s="261" t="s">
+      <c r="B132" s="264" t="s">
         <v>169</v>
       </c>
       <c r="C132" s="42" t="s">
@@ -14720,7 +14823,7 @@
       <c r="A133" s="113">
         <v>75</v>
       </c>
-      <c r="B133" s="261"/>
+      <c r="B133" s="264"/>
       <c r="C133" s="42" t="s">
         <v>171</v>
       </c>
@@ -14742,7 +14845,7 @@
       <c r="A134" s="113">
         <v>76</v>
       </c>
-      <c r="B134" s="261"/>
+      <c r="B134" s="264"/>
       <c r="C134" s="42" t="s">
         <v>172</v>
       </c>
@@ -14764,7 +14867,7 @@
       <c r="A135" s="113">
         <v>77</v>
       </c>
-      <c r="B135" s="261" t="s">
+      <c r="B135" s="264" t="s">
         <v>173</v>
       </c>
       <c r="C135" s="42" t="s">
@@ -14788,7 +14891,7 @@
       <c r="A136" s="113">
         <v>78</v>
       </c>
-      <c r="B136" s="261"/>
+      <c r="B136" s="264"/>
       <c r="C136" s="42" t="s">
         <v>175</v>
       </c>
@@ -14810,7 +14913,7 @@
       <c r="A137" s="113">
         <v>79</v>
       </c>
-      <c r="B137" s="261"/>
+      <c r="B137" s="264"/>
       <c r="C137" s="42" t="s">
         <v>176</v>
       </c>
@@ -14832,7 +14935,7 @@
       <c r="A138" s="113">
         <v>80</v>
       </c>
-      <c r="B138" s="261" t="s">
+      <c r="B138" s="264" t="s">
         <v>165</v>
       </c>
       <c r="C138" s="42" t="s">
@@ -14856,7 +14959,7 @@
       <c r="A139" s="113">
         <v>81</v>
       </c>
-      <c r="B139" s="261"/>
+      <c r="B139" s="264"/>
       <c r="C139" s="42" t="s">
         <v>178</v>
       </c>
@@ -14878,7 +14981,7 @@
       <c r="A140" s="113">
         <v>82</v>
       </c>
-      <c r="B140" s="261"/>
+      <c r="B140" s="264"/>
       <c r="C140" s="42" t="s">
         <v>179</v>
       </c>
@@ -14900,7 +15003,7 @@
       <c r="A141" s="113">
         <v>83</v>
       </c>
-      <c r="B141" s="261"/>
+      <c r="B141" s="264"/>
       <c r="C141" s="42" t="s">
         <v>180</v>
       </c>
@@ -14922,7 +15025,7 @@
       <c r="A142" s="113">
         <v>84</v>
       </c>
-      <c r="B142" s="261" t="s">
+      <c r="B142" s="264" t="s">
         <v>181</v>
       </c>
       <c r="C142" s="42" t="s">
@@ -14946,7 +15049,7 @@
       <c r="A143" s="113">
         <v>85</v>
       </c>
-      <c r="B143" s="261"/>
+      <c r="B143" s="264"/>
       <c r="C143" s="42" t="s">
         <v>183</v>
       </c>
@@ -15054,21 +15157,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="B97:B105"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B64:B79"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B123:B126"/>
-    <mergeCell ref="B106:B116"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="B80:B87"/>
-    <mergeCell ref="B88:B96"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="B55:B57"/>
     <mergeCell ref="B61:B63"/>
@@ -15079,6 +15167,21 @@
     <mergeCell ref="B22:B32"/>
     <mergeCell ref="B33:B42"/>
     <mergeCell ref="B50:B54"/>
+    <mergeCell ref="B64:B79"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="B106:B116"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="B80:B87"/>
+    <mergeCell ref="B88:B96"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="B97:B105"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B138:B141"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
@@ -15092,10 +15195,517 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="5" style="233" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="205" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="133" customWidth="1"/>
+    <col min="4" max="4" width="39.875" style="163" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="163" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="162" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="23.125" style="164" customWidth="1"/>
+    <col min="8" max="8" width="11" style="192" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="192" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="205" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="205" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="205" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="13.375" style="233" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="133" customWidth="1"/>
+    <col min="16" max="16" width="13.125" style="133" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="133"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="168" customFormat="1" ht="48" customHeight="1">
+      <c r="A1" s="286" t="s">
+        <v>559</v>
+      </c>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="246"/>
+      <c r="O1" s="165"/>
+    </row>
+    <row r="2" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A2" s="288" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="289" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="289" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="169" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="169"/>
+      <c r="F2" s="289" t="s">
+        <v>263</v>
+      </c>
+      <c r="G2" s="291" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2" s="293" t="s">
+        <v>468</v>
+      </c>
+      <c r="I2" s="293" t="s">
+        <v>469</v>
+      </c>
+      <c r="J2" s="285" t="s">
+        <v>260</v>
+      </c>
+      <c r="K2" s="285" t="s">
+        <v>261</v>
+      </c>
+      <c r="L2" s="285" t="s">
+        <v>336</v>
+      </c>
+      <c r="M2" s="297" t="s">
+        <v>561</v>
+      </c>
+      <c r="N2" s="259"/>
+      <c r="O2" s="285" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="25.5" customHeight="1">
+      <c r="A3" s="288"/>
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="171" t="s">
+        <v>291</v>
+      </c>
+      <c r="F3" s="289"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="293"/>
+      <c r="I3" s="293"/>
+      <c r="J3" s="285"/>
+      <c r="K3" s="285"/>
+      <c r="L3" s="285"/>
+      <c r="M3" s="297"/>
+      <c r="N3" s="259" t="s">
+        <v>605</v>
+      </c>
+      <c r="O3" s="285"/>
+    </row>
+    <row r="4" spans="1:15" ht="50.25" customHeight="1">
+      <c r="A4" s="231">
+        <v>21</v>
+      </c>
+      <c r="B4" s="120" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="176" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="128" t="s">
+        <v>374</v>
+      </c>
+      <c r="E4" s="128" t="s">
+        <v>352</v>
+      </c>
+      <c r="F4" s="129">
+        <v>1</v>
+      </c>
+      <c r="G4" s="208"/>
+      <c r="H4" s="201" t="s">
+        <v>493</v>
+      </c>
+      <c r="I4" s="191" t="s">
+        <v>487</v>
+      </c>
+      <c r="J4" s="156" t="s">
+        <v>342</v>
+      </c>
+      <c r="K4" s="156" t="s">
+        <v>329</v>
+      </c>
+      <c r="L4" s="156"/>
+      <c r="M4" s="250">
+        <v>4.17</v>
+      </c>
+      <c r="N4" s="250"/>
+      <c r="O4" s="179" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="63">
+      <c r="A5" s="231">
+        <v>22</v>
+      </c>
+      <c r="B5" s="120" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" s="175" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5" s="128" t="s">
+        <v>375</v>
+      </c>
+      <c r="E5" s="128" t="s">
+        <v>352</v>
+      </c>
+      <c r="F5" s="129">
+        <v>1</v>
+      </c>
+      <c r="G5" s="294" t="s">
+        <v>516</v>
+      </c>
+      <c r="H5" s="201" t="s">
+        <v>493</v>
+      </c>
+      <c r="I5" s="191" t="s">
+        <v>487</v>
+      </c>
+      <c r="J5" s="156" t="s">
+        <v>342</v>
+      </c>
+      <c r="K5" s="203" t="s">
+        <v>504</v>
+      </c>
+      <c r="L5" s="156"/>
+      <c r="M5" s="250">
+        <v>4.17</v>
+      </c>
+      <c r="N5" s="250"/>
+      <c r="O5" s="204" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="63">
+      <c r="A6" s="231">
+        <v>23</v>
+      </c>
+      <c r="B6" s="120" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" s="175" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="128" t="s">
+        <v>376</v>
+      </c>
+      <c r="E6" s="128" t="s">
+        <v>352</v>
+      </c>
+      <c r="F6" s="129">
+        <v>1</v>
+      </c>
+      <c r="G6" s="295"/>
+      <c r="H6" s="191" t="s">
+        <v>493</v>
+      </c>
+      <c r="I6" s="191" t="s">
+        <v>487</v>
+      </c>
+      <c r="J6" s="156" t="s">
+        <v>342</v>
+      </c>
+      <c r="K6" s="203" t="s">
+        <v>329</v>
+      </c>
+      <c r="L6" s="156"/>
+      <c r="M6" s="250">
+        <v>4.17</v>
+      </c>
+      <c r="N6" s="250"/>
+      <c r="O6" s="204" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="63">
+      <c r="A7" s="231">
+        <v>24</v>
+      </c>
+      <c r="B7" s="120" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" s="175" t="s">
+        <v>306</v>
+      </c>
+      <c r="D7" s="128" t="s">
+        <v>377</v>
+      </c>
+      <c r="E7" s="128" t="s">
+        <v>352</v>
+      </c>
+      <c r="F7" s="129">
+        <v>1</v>
+      </c>
+      <c r="G7" s="295"/>
+      <c r="H7" s="191" t="s">
+        <v>493</v>
+      </c>
+      <c r="I7" s="191" t="s">
+        <v>487</v>
+      </c>
+      <c r="J7" s="156" t="s">
+        <v>342</v>
+      </c>
+      <c r="K7" s="203" t="s">
+        <v>329</v>
+      </c>
+      <c r="L7" s="156"/>
+      <c r="M7" s="250">
+        <v>4.17</v>
+      </c>
+      <c r="N7" s="250"/>
+      <c r="O7" s="204" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="63">
+      <c r="A8" s="231">
+        <v>25</v>
+      </c>
+      <c r="B8" s="120" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" s="175" t="s">
+        <v>306</v>
+      </c>
+      <c r="D8" s="128" t="s">
+        <v>378</v>
+      </c>
+      <c r="E8" s="128" t="s">
+        <v>352</v>
+      </c>
+      <c r="F8" s="129">
+        <v>1</v>
+      </c>
+      <c r="G8" s="296"/>
+      <c r="H8" s="191" t="s">
+        <v>493</v>
+      </c>
+      <c r="I8" s="191" t="s">
+        <v>487</v>
+      </c>
+      <c r="J8" s="156" t="s">
+        <v>342</v>
+      </c>
+      <c r="K8" s="203" t="s">
+        <v>329</v>
+      </c>
+      <c r="L8" s="156"/>
+      <c r="M8" s="250">
+        <v>4.17</v>
+      </c>
+      <c r="N8" s="250"/>
+      <c r="O8" s="204" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="85.5" customHeight="1">
+      <c r="A9" s="231">
+        <v>32</v>
+      </c>
+      <c r="B9" s="123" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" s="155" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" s="151" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" s="128" t="s">
+        <v>352</v>
+      </c>
+      <c r="F9" s="129">
+        <v>1</v>
+      </c>
+      <c r="G9" s="146" t="s">
+        <v>370</v>
+      </c>
+      <c r="H9" s="146" t="s">
+        <v>484</v>
+      </c>
+      <c r="I9" s="146" t="s">
+        <v>485</v>
+      </c>
+      <c r="J9" s="156" t="s">
+        <v>331</v>
+      </c>
+      <c r="K9" s="156" t="s">
+        <v>329</v>
+      </c>
+      <c r="L9" s="156"/>
+      <c r="M9" s="255" t="s">
+        <v>587</v>
+      </c>
+      <c r="N9" s="255"/>
+      <c r="O9" s="126" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="74.25" customHeight="1">
+      <c r="A10" s="231">
+        <v>33</v>
+      </c>
+      <c r="B10" s="123" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" s="128" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" s="128" t="s">
+        <v>358</v>
+      </c>
+      <c r="E10" s="128" t="s">
+        <v>352</v>
+      </c>
+      <c r="F10" s="129">
+        <v>1</v>
+      </c>
+      <c r="G10" s="143" t="s">
+        <v>438</v>
+      </c>
+      <c r="H10" s="146" t="s">
+        <v>484</v>
+      </c>
+      <c r="I10" s="146" t="s">
+        <v>485</v>
+      </c>
+      <c r="J10" s="156" t="s">
+        <v>331</v>
+      </c>
+      <c r="K10" s="156" t="s">
+        <v>329</v>
+      </c>
+      <c r="L10" s="156"/>
+      <c r="M10" s="255" t="s">
+        <v>588</v>
+      </c>
+      <c r="N10" s="255"/>
+      <c r="O10" s="180" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="116" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A11" s="231">
+        <v>35</v>
+      </c>
+      <c r="B11" s="123" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="175" t="s">
+        <v>318</v>
+      </c>
+      <c r="D11" s="175" t="s">
+        <v>319</v>
+      </c>
+      <c r="E11" s="121" t="s">
+        <v>353</v>
+      </c>
+      <c r="F11" s="119"/>
+      <c r="G11" s="122" t="s">
+        <v>359</v>
+      </c>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="202" t="s">
+        <v>328</v>
+      </c>
+      <c r="K11" s="202" t="s">
+        <v>329</v>
+      </c>
+      <c r="L11" s="202"/>
+      <c r="M11" s="233" t="s">
+        <v>589</v>
+      </c>
+      <c r="N11" s="233"/>
+      <c r="O11" s="123" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="40.5" customHeight="1">
+      <c r="A12" s="231">
+        <v>36</v>
+      </c>
+      <c r="B12" s="123" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="177" t="s">
+        <v>464</v>
+      </c>
+      <c r="D12" s="177" t="s">
+        <v>465</v>
+      </c>
+      <c r="E12" s="128" t="s">
+        <v>439</v>
+      </c>
+      <c r="F12" s="129">
+        <v>1</v>
+      </c>
+      <c r="G12" s="130" t="s">
+        <v>440</v>
+      </c>
+      <c r="H12" s="234"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="156" t="s">
+        <v>328</v>
+      </c>
+      <c r="K12" s="203" t="s">
+        <v>504</v>
+      </c>
+      <c r="L12" s="137"/>
+      <c r="M12" s="233" t="s">
+        <v>590</v>
+      </c>
+      <c r="O12" s="204" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:O12"/>
+  <mergeCells count="14">
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+  </mergeCells>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
@@ -15115,18 +15725,18 @@
     <col min="10" max="10" width="15.375" style="205" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="205" customWidth="1"/>
     <col min="12" max="12" width="12.375" style="205" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.375" style="233" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="133" customWidth="1"/>
-    <col min="15" max="15" width="13.125" style="133" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="133"/>
+    <col min="13" max="14" width="13.375" style="233" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="133" customWidth="1"/>
+    <col min="16" max="16" width="13.125" style="133" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="133"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="168" customFormat="1" ht="48" customHeight="1">
-      <c r="A1" s="288" t="s">
+    <row r="1" spans="1:16" s="168" customFormat="1" ht="48" customHeight="1">
+      <c r="A1" s="286" t="s">
         <v>559</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
       <c r="D1" s="165"/>
       <c r="E1" s="165"/>
       <c r="F1" s="166"/>
@@ -15137,563 +15747,74 @@
       <c r="K1" s="167"/>
       <c r="L1" s="167"/>
       <c r="M1" s="246"/>
-      <c r="N1" s="165"/>
-    </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A2" s="290" t="s">
+      <c r="N1" s="246"/>
+      <c r="O1" s="165"/>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" customHeight="1">
+      <c r="A2" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="281" t="s">
+      <c r="B2" s="289" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="281" t="s">
+      <c r="C2" s="289" t="s">
         <v>258</v>
       </c>
       <c r="D2" s="169" t="s">
         <v>259</v>
       </c>
       <c r="E2" s="169"/>
-      <c r="F2" s="281" t="s">
+      <c r="F2" s="289" t="s">
         <v>263</v>
       </c>
-      <c r="G2" s="282" t="s">
+      <c r="G2" s="291" t="s">
         <v>262</v>
       </c>
-      <c r="H2" s="284" t="s">
+      <c r="H2" s="293" t="s">
         <v>468</v>
       </c>
-      <c r="I2" s="284" t="s">
+      <c r="I2" s="293" t="s">
         <v>469</v>
       </c>
-      <c r="J2" s="280" t="s">
+      <c r="J2" s="285" t="s">
         <v>260</v>
       </c>
-      <c r="K2" s="280" t="s">
+      <c r="K2" s="285" t="s">
         <v>261</v>
       </c>
-      <c r="L2" s="280" t="s">
+      <c r="L2" s="285" t="s">
         <v>336</v>
       </c>
-      <c r="M2" s="291" t="s">
+      <c r="M2" s="297" t="s">
         <v>561</v>
       </c>
-      <c r="N2" s="280" t="s">
+      <c r="N2" s="259"/>
+      <c r="O2" s="285" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A3" s="290"/>
-      <c r="B3" s="281"/>
-      <c r="C3" s="281"/>
+    <row r="3" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A3" s="288"/>
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
       <c r="D3" s="170"/>
       <c r="E3" s="171" t="s">
         <v>291</v>
       </c>
-      <c r="F3" s="281"/>
-      <c r="G3" s="283"/>
-      <c r="H3" s="284"/>
-      <c r="I3" s="284"/>
-      <c r="J3" s="280"/>
-      <c r="K3" s="280"/>
-      <c r="L3" s="280"/>
-      <c r="M3" s="291"/>
-      <c r="N3" s="280"/>
-    </row>
-    <row r="4" spans="1:14" ht="50.25" customHeight="1">
-      <c r="A4" s="231">
-        <v>21</v>
-      </c>
-      <c r="B4" s="120" t="s">
-        <v>305</v>
-      </c>
-      <c r="C4" s="176" t="s">
-        <v>306</v>
-      </c>
-      <c r="D4" s="128" t="s">
-        <v>374</v>
-      </c>
-      <c r="E4" s="128" t="s">
-        <v>352</v>
-      </c>
-      <c r="F4" s="129">
-        <v>1</v>
-      </c>
-      <c r="G4" s="208"/>
-      <c r="H4" s="201" t="s">
-        <v>493</v>
-      </c>
-      <c r="I4" s="191" t="s">
-        <v>487</v>
-      </c>
-      <c r="J4" s="156" t="s">
-        <v>342</v>
-      </c>
-      <c r="K4" s="156" t="s">
-        <v>329</v>
-      </c>
-      <c r="L4" s="156"/>
-      <c r="M4" s="250">
-        <v>4.17</v>
-      </c>
-      <c r="N4" s="179" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="63">
-      <c r="A5" s="231">
-        <v>22</v>
-      </c>
-      <c r="B5" s="120" t="s">
-        <v>305</v>
-      </c>
-      <c r="C5" s="175" t="s">
-        <v>306</v>
-      </c>
-      <c r="D5" s="128" t="s">
-        <v>375</v>
-      </c>
-      <c r="E5" s="128" t="s">
-        <v>352</v>
-      </c>
-      <c r="F5" s="129">
-        <v>1</v>
-      </c>
-      <c r="G5" s="285" t="s">
-        <v>516</v>
-      </c>
-      <c r="H5" s="201" t="s">
-        <v>493</v>
-      </c>
-      <c r="I5" s="191" t="s">
-        <v>487</v>
-      </c>
-      <c r="J5" s="156" t="s">
-        <v>342</v>
-      </c>
-      <c r="K5" s="203" t="s">
-        <v>504</v>
-      </c>
-      <c r="L5" s="156"/>
-      <c r="M5" s="250">
-        <v>4.17</v>
-      </c>
-      <c r="N5" s="204" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="63">
-      <c r="A6" s="231">
-        <v>23</v>
-      </c>
-      <c r="B6" s="120" t="s">
-        <v>305</v>
-      </c>
-      <c r="C6" s="175" t="s">
-        <v>306</v>
-      </c>
-      <c r="D6" s="128" t="s">
-        <v>376</v>
-      </c>
-      <c r="E6" s="128" t="s">
-        <v>352</v>
-      </c>
-      <c r="F6" s="129">
-        <v>1</v>
-      </c>
-      <c r="G6" s="286"/>
-      <c r="H6" s="191" t="s">
-        <v>493</v>
-      </c>
-      <c r="I6" s="191" t="s">
-        <v>487</v>
-      </c>
-      <c r="J6" s="156" t="s">
-        <v>342</v>
-      </c>
-      <c r="K6" s="203" t="s">
-        <v>329</v>
-      </c>
-      <c r="L6" s="156"/>
-      <c r="M6" s="250">
-        <v>4.17</v>
-      </c>
-      <c r="N6" s="204" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="63">
-      <c r="A7" s="231">
-        <v>24</v>
-      </c>
-      <c r="B7" s="120" t="s">
-        <v>305</v>
-      </c>
-      <c r="C7" s="175" t="s">
-        <v>306</v>
-      </c>
-      <c r="D7" s="128" t="s">
-        <v>377</v>
-      </c>
-      <c r="E7" s="128" t="s">
-        <v>352</v>
-      </c>
-      <c r="F7" s="129">
-        <v>1</v>
-      </c>
-      <c r="G7" s="286"/>
-      <c r="H7" s="191" t="s">
-        <v>493</v>
-      </c>
-      <c r="I7" s="191" t="s">
-        <v>487</v>
-      </c>
-      <c r="J7" s="156" t="s">
-        <v>342</v>
-      </c>
-      <c r="K7" s="203" t="s">
-        <v>329</v>
-      </c>
-      <c r="L7" s="156"/>
-      <c r="M7" s="250">
-        <v>4.17</v>
-      </c>
-      <c r="N7" s="204" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="63">
-      <c r="A8" s="231">
-        <v>25</v>
-      </c>
-      <c r="B8" s="120" t="s">
-        <v>305</v>
-      </c>
-      <c r="C8" s="175" t="s">
-        <v>306</v>
-      </c>
-      <c r="D8" s="128" t="s">
-        <v>378</v>
-      </c>
-      <c r="E8" s="128" t="s">
-        <v>352</v>
-      </c>
-      <c r="F8" s="129">
-        <v>1</v>
-      </c>
-      <c r="G8" s="287"/>
-      <c r="H8" s="191" t="s">
-        <v>493</v>
-      </c>
-      <c r="I8" s="191" t="s">
-        <v>487</v>
-      </c>
-      <c r="J8" s="156" t="s">
-        <v>342</v>
-      </c>
-      <c r="K8" s="203" t="s">
-        <v>329</v>
-      </c>
-      <c r="L8" s="156"/>
-      <c r="M8" s="250">
-        <v>4.17</v>
-      </c>
-      <c r="N8" s="204" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="85.5" customHeight="1">
-      <c r="A9" s="231">
-        <v>32</v>
-      </c>
-      <c r="B9" s="123" t="s">
-        <v>286</v>
-      </c>
-      <c r="C9" s="155" t="s">
-        <v>287</v>
-      </c>
-      <c r="D9" s="151" t="s">
-        <v>289</v>
-      </c>
-      <c r="E9" s="128" t="s">
-        <v>352</v>
-      </c>
-      <c r="F9" s="129">
-        <v>1</v>
-      </c>
-      <c r="G9" s="146" t="s">
-        <v>370</v>
-      </c>
-      <c r="H9" s="146" t="s">
-        <v>484</v>
-      </c>
-      <c r="I9" s="146" t="s">
-        <v>485</v>
-      </c>
-      <c r="J9" s="156" t="s">
-        <v>331</v>
-      </c>
-      <c r="K9" s="156" t="s">
-        <v>329</v>
-      </c>
-      <c r="L9" s="156"/>
-      <c r="M9" s="255" t="s">
-        <v>587</v>
-      </c>
-      <c r="N9" s="126" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="74.25" customHeight="1">
-      <c r="A10" s="231">
-        <v>33</v>
-      </c>
-      <c r="B10" s="123" t="s">
-        <v>286</v>
-      </c>
-      <c r="C10" s="128" t="s">
-        <v>288</v>
-      </c>
-      <c r="D10" s="128" t="s">
-        <v>358</v>
-      </c>
-      <c r="E10" s="128" t="s">
-        <v>352</v>
-      </c>
-      <c r="F10" s="129">
-        <v>1</v>
-      </c>
-      <c r="G10" s="143" t="s">
-        <v>438</v>
-      </c>
-      <c r="H10" s="146" t="s">
-        <v>484</v>
-      </c>
-      <c r="I10" s="146" t="s">
-        <v>485</v>
-      </c>
-      <c r="J10" s="156" t="s">
-        <v>331</v>
-      </c>
-      <c r="K10" s="156" t="s">
-        <v>329</v>
-      </c>
-      <c r="L10" s="156"/>
-      <c r="M10" s="255" t="s">
-        <v>588</v>
-      </c>
-      <c r="N10" s="180" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="116" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A11" s="231">
-        <v>35</v>
-      </c>
-      <c r="B11" s="123" t="s">
-        <v>286</v>
-      </c>
-      <c r="C11" s="175" t="s">
-        <v>318</v>
-      </c>
-      <c r="D11" s="175" t="s">
-        <v>319</v>
-      </c>
-      <c r="E11" s="121" t="s">
-        <v>353</v>
-      </c>
-      <c r="F11" s="119"/>
-      <c r="G11" s="122" t="s">
-        <v>359</v>
-      </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="202" t="s">
-        <v>328</v>
-      </c>
-      <c r="K11" s="202" t="s">
-        <v>329</v>
-      </c>
-      <c r="L11" s="202"/>
-      <c r="M11" s="233" t="s">
-        <v>589</v>
-      </c>
-      <c r="N11" s="123" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="40.5" customHeight="1">
-      <c r="A12" s="231">
-        <v>36</v>
-      </c>
-      <c r="B12" s="123" t="s">
-        <v>286</v>
-      </c>
-      <c r="C12" s="177" t="s">
-        <v>464</v>
-      </c>
-      <c r="D12" s="177" t="s">
-        <v>465</v>
-      </c>
-      <c r="E12" s="128" t="s">
-        <v>439</v>
-      </c>
-      <c r="F12" s="129">
-        <v>1</v>
-      </c>
-      <c r="G12" s="130" t="s">
-        <v>440</v>
-      </c>
-      <c r="H12" s="234"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="156" t="s">
-        <v>328</v>
-      </c>
-      <c r="K12" s="203" t="s">
-        <v>504</v>
-      </c>
-      <c r="L12" s="137"/>
-      <c r="M12" s="233" t="s">
-        <v>590</v>
-      </c>
-      <c r="N12" s="204" t="s">
-        <v>338</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A3:N12"/>
-  <mergeCells count="14">
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-  </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="5" style="233" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="205" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="133" customWidth="1"/>
-    <col min="4" max="4" width="39.875" style="163" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="163" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="162" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="23.125" style="164" customWidth="1"/>
-    <col min="8" max="8" width="11" style="192" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="192" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="205" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.375" style="205" customWidth="1"/>
-    <col min="12" max="12" width="12.375" style="205" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.375" style="233" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="133" customWidth="1"/>
-    <col min="15" max="15" width="13.125" style="133" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="133"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="168" customFormat="1" ht="48" customHeight="1">
-      <c r="A1" s="288" t="s">
-        <v>559</v>
-      </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="246"/>
-      <c r="N1" s="165"/>
-    </row>
-    <row r="2" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A2" s="290" t="s">
-        <v>256</v>
-      </c>
-      <c r="B2" s="281" t="s">
-        <v>257</v>
-      </c>
-      <c r="C2" s="281" t="s">
-        <v>258</v>
-      </c>
-      <c r="D2" s="169" t="s">
-        <v>259</v>
-      </c>
-      <c r="E2" s="169"/>
-      <c r="F2" s="281" t="s">
-        <v>263</v>
-      </c>
-      <c r="G2" s="282" t="s">
-        <v>262</v>
-      </c>
-      <c r="H2" s="284" t="s">
-        <v>468</v>
-      </c>
-      <c r="I2" s="284" t="s">
-        <v>469</v>
-      </c>
-      <c r="J2" s="280" t="s">
-        <v>260</v>
-      </c>
-      <c r="K2" s="280" t="s">
-        <v>261</v>
-      </c>
-      <c r="L2" s="280" t="s">
-        <v>336</v>
-      </c>
-      <c r="M2" s="291" t="s">
-        <v>561</v>
-      </c>
-      <c r="N2" s="280" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A3" s="290"/>
-      <c r="B3" s="281"/>
-      <c r="C3" s="281"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="171" t="s">
-        <v>291</v>
-      </c>
-      <c r="F3" s="281"/>
-      <c r="G3" s="283"/>
-      <c r="H3" s="284"/>
-      <c r="I3" s="284"/>
-      <c r="J3" s="280"/>
-      <c r="K3" s="280"/>
-      <c r="L3" s="280"/>
-      <c r="M3" s="291"/>
-      <c r="N3" s="280"/>
-    </row>
-    <row r="4" spans="1:15" ht="150.75" customHeight="1">
+      <c r="F3" s="289"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="293"/>
+      <c r="I3" s="293"/>
+      <c r="J3" s="285"/>
+      <c r="K3" s="285"/>
+      <c r="L3" s="285"/>
+      <c r="M3" s="297"/>
+      <c r="N3" s="259" t="s">
+        <v>605</v>
+      </c>
+      <c r="O3" s="285"/>
+    </row>
+    <row r="4" spans="1:16" ht="150.75" customHeight="1">
       <c r="A4" s="231">
         <v>6</v>
       </c>
@@ -15731,11 +15852,12 @@
       <c r="M4" s="257" t="s">
         <v>596</v>
       </c>
-      <c r="N4" s="137" t="s">
+      <c r="N4" s="257"/>
+      <c r="O4" s="137" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="43.5" customHeight="1">
+    <row r="5" spans="1:16" ht="43.5" customHeight="1">
       <c r="A5" s="231">
         <v>42</v>
       </c>
@@ -15767,20 +15889,23 @@
       <c r="M5" s="249" t="s">
         <v>593</v>
       </c>
-      <c r="N5" s="137" t="s">
+      <c r="N5" s="249" t="s">
+        <v>611</v>
+      </c>
+      <c r="O5" s="137" t="s">
         <v>513</v>
       </c>
-      <c r="O5" s="215" t="s">
+      <c r="P5" s="215" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="M6" s="249"/>
+      <c r="N6" s="261"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:N5"/>
   <mergeCells count="13">
-    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -15803,13 +15928,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -15826,18 +15951,18 @@
     <col min="10" max="10" width="15.375" style="205" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="205" customWidth="1"/>
     <col min="12" max="12" width="12.375" style="205" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.375" style="205" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="133" customWidth="1"/>
-    <col min="15" max="15" width="13.125" style="133" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="133"/>
+    <col min="13" max="14" width="13.375" style="205" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="133" customWidth="1"/>
+    <col min="16" max="16" width="13.125" style="133" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="133"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="168" customFormat="1" ht="48" customHeight="1">
-      <c r="A1" s="288" t="s">
+    <row r="1" spans="1:16" s="168" customFormat="1" ht="48" customHeight="1">
+      <c r="A1" s="286" t="s">
         <v>559</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
       <c r="D1" s="165"/>
       <c r="E1" s="165"/>
       <c r="F1" s="166"/>
@@ -15848,69 +15973,74 @@
       <c r="K1" s="167"/>
       <c r="L1" s="167"/>
       <c r="M1" s="167"/>
-      <c r="N1" s="165"/>
-    </row>
-    <row r="2" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A2" s="290" t="s">
+      <c r="N1" s="167"/>
+      <c r="O1" s="165"/>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" customHeight="1">
+      <c r="A2" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="281" t="s">
+      <c r="B2" s="289" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="281" t="s">
+      <c r="C2" s="289" t="s">
         <v>258</v>
       </c>
       <c r="D2" s="169" t="s">
         <v>259</v>
       </c>
       <c r="E2" s="169"/>
-      <c r="F2" s="281" t="s">
+      <c r="F2" s="289" t="s">
         <v>263</v>
       </c>
-      <c r="G2" s="282" t="s">
+      <c r="G2" s="291" t="s">
         <v>262</v>
       </c>
-      <c r="H2" s="284" t="s">
+      <c r="H2" s="293" t="s">
         <v>468</v>
       </c>
-      <c r="I2" s="284" t="s">
+      <c r="I2" s="293" t="s">
         <v>469</v>
       </c>
-      <c r="J2" s="280" t="s">
+      <c r="J2" s="285" t="s">
         <v>260</v>
       </c>
-      <c r="K2" s="280" t="s">
+      <c r="K2" s="285" t="s">
         <v>261</v>
       </c>
-      <c r="L2" s="280" t="s">
+      <c r="L2" s="285" t="s">
         <v>336</v>
       </c>
-      <c r="M2" s="280" t="s">
+      <c r="M2" s="285" t="s">
         <v>561</v>
       </c>
-      <c r="N2" s="280" t="s">
+      <c r="N2" s="258"/>
+      <c r="O2" s="285" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A3" s="290"/>
-      <c r="B3" s="281"/>
-      <c r="C3" s="281"/>
+    <row r="3" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A3" s="288"/>
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
       <c r="D3" s="170"/>
       <c r="E3" s="171" t="s">
         <v>291</v>
       </c>
-      <c r="F3" s="281"/>
-      <c r="G3" s="283"/>
-      <c r="H3" s="284"/>
-      <c r="I3" s="284"/>
-      <c r="J3" s="280"/>
-      <c r="K3" s="280"/>
-      <c r="L3" s="280"/>
-      <c r="M3" s="280"/>
-      <c r="N3" s="280"/>
-    </row>
-    <row r="4" spans="1:15" s="224" customFormat="1" ht="134.25" customHeight="1">
+      <c r="F3" s="289"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="293"/>
+      <c r="I3" s="293"/>
+      <c r="J3" s="285"/>
+      <c r="K3" s="285"/>
+      <c r="L3" s="285"/>
+      <c r="M3" s="285"/>
+      <c r="N3" s="258" t="s">
+        <v>605</v>
+      </c>
+      <c r="O3" s="285"/>
+    </row>
+    <row r="4" spans="1:16" s="224" customFormat="1" ht="134.25" customHeight="1">
       <c r="A4" s="232"/>
       <c r="B4" s="218" t="s">
         <v>535</v>
@@ -15935,12 +16065,14 @@
         <v>335</v>
       </c>
       <c r="L4" s="223"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="218" t="s">
+      <c r="N4" s="202" t="s">
+        <v>620</v>
+      </c>
+      <c r="O4" s="218" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="114.75" customHeight="1">
+    <row r="5" spans="1:16" ht="114.75" customHeight="1">
       <c r="A5" s="231">
         <v>31</v>
       </c>
@@ -15969,15 +16101,17 @@
         <v>527</v>
       </c>
       <c r="L5" s="137"/>
-      <c r="M5" s="203"/>
-      <c r="N5" s="215" t="s">
-        <v>533</v>
+      <c r="N5" s="203" t="s">
+        <v>621</v>
       </c>
       <c r="O5" s="215" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="43.5" customHeight="1">
+      <c r="P5" s="215" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="43.5" customHeight="1">
       <c r="A6" s="231">
         <v>41</v>
       </c>
@@ -16006,12 +16140,14 @@
         <v>335</v>
       </c>
       <c r="L6" s="156"/>
-      <c r="M6" s="203"/>
-      <c r="N6" s="137" t="s">
+      <c r="N6" s="203" t="s">
+        <v>622</v>
+      </c>
+      <c r="O6" s="137" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="68.25" customHeight="1">
+    <row r="7" spans="1:16" ht="68.25" customHeight="1">
       <c r="A7" s="231">
         <v>46</v>
       </c>
@@ -16038,12 +16174,12 @@
         <v>335</v>
       </c>
       <c r="L7" s="137"/>
-      <c r="M7" s="203"/>
-      <c r="N7" s="137" t="s">
+      <c r="N7" s="203"/>
+      <c r="O7" s="137" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="84">
+    <row r="8" spans="1:16" ht="84">
       <c r="A8" s="231">
         <v>48</v>
       </c>
@@ -16076,18 +16212,26 @@
         <v>335</v>
       </c>
       <c r="L8" s="137"/>
-      <c r="M8" s="203"/>
-      <c r="N8" s="204" t="s">
+      <c r="N8" s="203" t="s">
+        <v>623</v>
+      </c>
+      <c r="O8" s="204" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="M9" s="203"/>
+      <c r="N9" s="262"/>
+    </row>
+    <row r="38" spans="19:19">
+      <c r="S38" s="298" t="s">
+        <v>624</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:N8"/>
+  <autoFilter ref="A3:O8"/>
   <mergeCells count="13">
-    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -16110,13 +16254,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -16133,18 +16277,18 @@
     <col min="10" max="10" width="15.375" style="205" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="205" customWidth="1"/>
     <col min="12" max="12" width="12.375" style="205" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.375" style="205" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="133" customWidth="1"/>
-    <col min="15" max="15" width="13.125" style="133" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="133"/>
+    <col min="13" max="14" width="13.375" style="205" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="133" customWidth="1"/>
+    <col min="16" max="16" width="13.125" style="133" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="133"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="168" customFormat="1" ht="48" customHeight="1">
-      <c r="A1" s="288" t="s">
+    <row r="1" spans="1:16" s="168" customFormat="1" ht="48" customHeight="1">
+      <c r="A1" s="286" t="s">
         <v>559</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
       <c r="D1" s="165"/>
       <c r="E1" s="165"/>
       <c r="F1" s="166"/>
@@ -16155,69 +16299,74 @@
       <c r="K1" s="167"/>
       <c r="L1" s="167"/>
       <c r="M1" s="167"/>
-      <c r="N1" s="165"/>
-    </row>
-    <row r="2" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A2" s="290" t="s">
+      <c r="N1" s="167"/>
+      <c r="O1" s="165"/>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" customHeight="1">
+      <c r="A2" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="281" t="s">
+      <c r="B2" s="289" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="281" t="s">
+      <c r="C2" s="289" t="s">
         <v>258</v>
       </c>
       <c r="D2" s="169" t="s">
         <v>259</v>
       </c>
       <c r="E2" s="169"/>
-      <c r="F2" s="281" t="s">
+      <c r="F2" s="289" t="s">
         <v>263</v>
       </c>
-      <c r="G2" s="282" t="s">
+      <c r="G2" s="291" t="s">
         <v>262</v>
       </c>
-      <c r="H2" s="284" t="s">
+      <c r="H2" s="293" t="s">
         <v>468</v>
       </c>
-      <c r="I2" s="284" t="s">
+      <c r="I2" s="293" t="s">
         <v>469</v>
       </c>
-      <c r="J2" s="280" t="s">
+      <c r="J2" s="285" t="s">
         <v>260</v>
       </c>
-      <c r="K2" s="280" t="s">
+      <c r="K2" s="285" t="s">
         <v>261</v>
       </c>
-      <c r="L2" s="280" t="s">
+      <c r="L2" s="285" t="s">
         <v>336</v>
       </c>
-      <c r="M2" s="280" t="s">
+      <c r="M2" s="285" t="s">
         <v>561</v>
       </c>
-      <c r="N2" s="280" t="s">
+      <c r="N2" s="258"/>
+      <c r="O2" s="285" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A3" s="290"/>
-      <c r="B3" s="281"/>
-      <c r="C3" s="281"/>
+    <row r="3" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A3" s="288"/>
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
       <c r="D3" s="170"/>
       <c r="E3" s="171" t="s">
         <v>291</v>
       </c>
-      <c r="F3" s="281"/>
-      <c r="G3" s="283"/>
-      <c r="H3" s="284"/>
-      <c r="I3" s="284"/>
-      <c r="J3" s="280"/>
-      <c r="K3" s="280"/>
-      <c r="L3" s="280"/>
-      <c r="M3" s="280"/>
-      <c r="N3" s="280"/>
-    </row>
-    <row r="4" spans="1:15" ht="114.75" customHeight="1">
+      <c r="F3" s="289"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="293"/>
+      <c r="I3" s="293"/>
+      <c r="J3" s="285"/>
+      <c r="K3" s="285"/>
+      <c r="L3" s="285"/>
+      <c r="M3" s="285"/>
+      <c r="N3" s="258" t="s">
+        <v>605</v>
+      </c>
+      <c r="O3" s="285"/>
+    </row>
+    <row r="4" spans="1:16" ht="114.75" customHeight="1">
       <c r="A4" s="231">
         <v>31</v>
       </c>
@@ -16249,17 +16398,18 @@
       <c r="M4" s="250" t="s">
         <v>576</v>
       </c>
-      <c r="N4" s="215" t="s">
+      <c r="N4" s="263"/>
+      <c r="O4" s="215" t="s">
         <v>591</v>
       </c>
-      <c r="O4" s="215" t="s">
+      <c r="P4" s="215" t="s">
         <v>533</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:N4"/>
+  <autoFilter ref="A3:O4"/>
   <mergeCells count="13">
-    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -16368,47 +16518,47 @@
       <c r="AH1" s="60"/>
     </row>
     <row r="2" spans="1:34" s="79" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="267" t="s">
+      <c r="A2" s="277" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="267" t="s">
+      <c r="B2" s="277" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="267" t="s">
+      <c r="C2" s="277" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="267" t="s">
+      <c r="D2" s="277" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="267" t="s">
+      <c r="E2" s="277" t="s">
         <v>213</v>
       </c>
-      <c r="F2" s="267" t="s">
+      <c r="F2" s="277" t="s">
         <v>214</v>
       </c>
-      <c r="G2" s="269" t="s">
+      <c r="G2" s="279" t="s">
         <v>215</v>
       </c>
-      <c r="H2" s="269"/>
-      <c r="I2" s="270" t="s">
+      <c r="H2" s="279"/>
+      <c r="I2" s="280" t="s">
         <v>205</v>
       </c>
-      <c r="J2" s="267" t="s">
+      <c r="J2" s="277" t="s">
         <v>207</v>
       </c>
-      <c r="K2" s="267" t="s">
+      <c r="K2" s="277" t="s">
         <v>206</v>
       </c>
-      <c r="L2" s="267" t="s">
+      <c r="L2" s="277" t="s">
         <v>217</v>
       </c>
-      <c r="M2" s="267" t="s">
+      <c r="M2" s="277" t="s">
         <v>218</v>
       </c>
-      <c r="N2" s="267" t="s">
+      <c r="N2" s="277" t="s">
         <v>219</v>
       </c>
-      <c r="O2" s="267" t="s">
+      <c r="O2" s="277" t="s">
         <v>220</v>
       </c>
       <c r="P2" s="72"/>
@@ -16432,25 +16582,25 @@
       <c r="AH2" s="78"/>
     </row>
     <row r="3" spans="1:34" s="79" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="268"/>
-      <c r="B3" s="268"/>
-      <c r="C3" s="268"/>
-      <c r="D3" s="268"/>
-      <c r="E3" s="268"/>
-      <c r="F3" s="268"/>
+      <c r="A3" s="278"/>
+      <c r="B3" s="278"/>
+      <c r="C3" s="278"/>
+      <c r="D3" s="278"/>
+      <c r="E3" s="278"/>
+      <c r="F3" s="278"/>
       <c r="G3" s="83" t="s">
         <v>221</v>
       </c>
       <c r="H3" s="83" t="s">
         <v>216</v>
       </c>
-      <c r="I3" s="271"/>
-      <c r="J3" s="268"/>
-      <c r="K3" s="268"/>
-      <c r="L3" s="268"/>
-      <c r="M3" s="268"/>
-      <c r="N3" s="268"/>
-      <c r="O3" s="268"/>
+      <c r="I3" s="281"/>
+      <c r="J3" s="278"/>
+      <c r="K3" s="278"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
+      <c r="O3" s="278"/>
       <c r="P3" s="72"/>
       <c r="Q3" s="73"/>
       <c r="R3" s="73"/>
@@ -16647,7 +16797,7 @@
       <c r="A8" s="106">
         <v>5</v>
       </c>
-      <c r="B8" s="272" t="s">
+      <c r="B8" s="273" t="s">
         <v>241</v>
       </c>
       <c r="C8" s="86" t="s">
@@ -16692,7 +16842,7 @@
       <c r="A9" s="106">
         <v>6</v>
       </c>
-      <c r="B9" s="273"/>
+      <c r="B9" s="274"/>
       <c r="C9" s="86" t="s">
         <v>227</v>
       </c>
@@ -16735,7 +16885,7 @@
       <c r="A10" s="106">
         <v>7</v>
       </c>
-      <c r="B10" s="274"/>
+      <c r="B10" s="275"/>
       <c r="C10" s="92" t="s">
         <v>228</v>
       </c>
@@ -16778,7 +16928,7 @@
       <c r="A11" s="106">
         <v>8</v>
       </c>
-      <c r="B11" s="272" t="s">
+      <c r="B11" s="273" t="s">
         <v>242</v>
       </c>
       <c r="C11" s="86" t="s">
@@ -16823,7 +16973,7 @@
       <c r="A12" s="106">
         <v>9</v>
       </c>
-      <c r="B12" s="274"/>
+      <c r="B12" s="275"/>
       <c r="C12" s="86" t="s">
         <v>231</v>
       </c>
@@ -16866,7 +17016,7 @@
       <c r="A13" s="106">
         <v>10</v>
       </c>
-      <c r="B13" s="275" t="s">
+      <c r="B13" s="276" t="s">
         <v>244</v>
       </c>
       <c r="C13" s="86" t="s">
@@ -16911,7 +17061,7 @@
       <c r="A14" s="106">
         <v>11</v>
       </c>
-      <c r="B14" s="275"/>
+      <c r="B14" s="276"/>
       <c r="C14" s="86" t="s">
         <v>246</v>
       </c>
@@ -16997,7 +17147,7 @@
       <c r="A16" s="106">
         <v>13</v>
       </c>
-      <c r="B16" s="272" t="s">
+      <c r="B16" s="273" t="s">
         <v>204</v>
       </c>
       <c r="C16" s="93" t="s">
@@ -17042,7 +17192,7 @@
       <c r="A17" s="106">
         <v>14</v>
       </c>
-      <c r="B17" s="273"/>
+      <c r="B17" s="274"/>
       <c r="C17" s="93" t="s">
         <v>232</v>
       </c>
@@ -17085,7 +17235,7 @@
       <c r="A18" s="106">
         <v>15</v>
       </c>
-      <c r="B18" s="273"/>
+      <c r="B18" s="274"/>
       <c r="C18" s="93" t="s">
         <v>233</v>
       </c>
@@ -17128,7 +17278,7 @@
       <c r="A19" s="106">
         <v>16</v>
       </c>
-      <c r="B19" s="274"/>
+      <c r="B19" s="275"/>
       <c r="C19" s="93" t="s">
         <v>234</v>
       </c>
@@ -17171,7 +17321,7 @@
       <c r="A20" s="106">
         <v>17</v>
       </c>
-      <c r="B20" s="275" t="s">
+      <c r="B20" s="276" t="s">
         <v>235</v>
       </c>
       <c r="C20" s="86" t="s">
@@ -17216,7 +17366,7 @@
       <c r="A21" s="106">
         <v>18</v>
       </c>
-      <c r="B21" s="275"/>
+      <c r="B21" s="276"/>
       <c r="C21" s="86" t="s">
         <v>237</v>
       </c>
@@ -17294,11 +17444,12 @@
   </sheetData>
   <autoFilter ref="A3:AH3"/>
   <mergeCells count="19">
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="G2:H2"/>
@@ -17307,12 +17458,11 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="1">
@@ -17413,47 +17563,47 @@
       <c r="AH1" s="98"/>
     </row>
     <row r="2" spans="1:34" s="103" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="282" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="276" t="s">
+      <c r="B2" s="282" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="276" t="s">
+      <c r="C2" s="282" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="276" t="s">
+      <c r="D2" s="282" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="276" t="s">
+      <c r="E2" s="282" t="s">
         <v>213</v>
       </c>
-      <c r="F2" s="276" t="s">
+      <c r="F2" s="282" t="s">
         <v>214</v>
       </c>
-      <c r="G2" s="269" t="s">
+      <c r="G2" s="279" t="s">
         <v>215</v>
       </c>
-      <c r="H2" s="269"/>
-      <c r="I2" s="270" t="s">
+      <c r="H2" s="279"/>
+      <c r="I2" s="280" t="s">
         <v>205</v>
       </c>
-      <c r="J2" s="276" t="s">
+      <c r="J2" s="282" t="s">
         <v>207</v>
       </c>
-      <c r="K2" s="276" t="s">
+      <c r="K2" s="282" t="s">
         <v>206</v>
       </c>
-      <c r="L2" s="276" t="s">
+      <c r="L2" s="282" t="s">
         <v>217</v>
       </c>
-      <c r="M2" s="276" t="s">
+      <c r="M2" s="282" t="s">
         <v>218</v>
       </c>
-      <c r="N2" s="276" t="s">
+      <c r="N2" s="282" t="s">
         <v>219</v>
       </c>
-      <c r="O2" s="276" t="s">
+      <c r="O2" s="282" t="s">
         <v>220</v>
       </c>
       <c r="P2" s="100"/>
@@ -17477,25 +17627,25 @@
       <c r="AH2" s="102"/>
     </row>
     <row r="3" spans="1:34" s="103" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="277"/>
-      <c r="B3" s="277"/>
-      <c r="C3" s="277"/>
-      <c r="D3" s="277"/>
-      <c r="E3" s="277"/>
-      <c r="F3" s="277"/>
+      <c r="A3" s="283"/>
+      <c r="B3" s="283"/>
+      <c r="C3" s="283"/>
+      <c r="D3" s="283"/>
+      <c r="E3" s="283"/>
+      <c r="F3" s="283"/>
       <c r="G3" s="83" t="s">
         <v>221</v>
       </c>
       <c r="H3" s="83" t="s">
         <v>216</v>
       </c>
-      <c r="I3" s="271"/>
-      <c r="J3" s="277"/>
-      <c r="K3" s="277"/>
-      <c r="L3" s="277"/>
-      <c r="M3" s="277"/>
-      <c r="N3" s="277"/>
-      <c r="O3" s="277"/>
+      <c r="I3" s="281"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="283"/>
+      <c r="L3" s="283"/>
+      <c r="M3" s="283"/>
+      <c r="N3" s="283"/>
+      <c r="O3" s="283"/>
       <c r="P3" s="100"/>
       <c r="Q3" s="101"/>
       <c r="R3" s="101"/>
@@ -17735,7 +17885,7 @@
       <c r="A9" s="110">
         <v>6</v>
       </c>
-      <c r="B9" s="275" t="s">
+      <c r="B9" s="276" t="s">
         <v>252</v>
       </c>
       <c r="C9" s="86" t="s">
@@ -17780,7 +17930,7 @@
       <c r="A10" s="110">
         <v>7</v>
       </c>
-      <c r="B10" s="275"/>
+      <c r="B10" s="276"/>
       <c r="C10" s="86" t="s">
         <v>253</v>
       </c>
@@ -17823,7 +17973,7 @@
       <c r="A11" s="110">
         <v>8</v>
       </c>
-      <c r="B11" s="275"/>
+      <c r="B11" s="276"/>
       <c r="C11" s="86" t="s">
         <v>254</v>
       </c>
@@ -17866,7 +18016,7 @@
       <c r="A12" s="110">
         <v>9</v>
       </c>
-      <c r="B12" s="272" t="s">
+      <c r="B12" s="273" t="s">
         <v>229</v>
       </c>
       <c r="C12" s="86" t="s">
@@ -17911,7 +18061,7 @@
       <c r="A13" s="110">
         <v>10</v>
       </c>
-      <c r="B13" s="274"/>
+      <c r="B13" s="275"/>
       <c r="C13" s="86" t="s">
         <v>231</v>
       </c>
@@ -17954,7 +18104,7 @@
       <c r="A14" s="110">
         <v>11</v>
       </c>
-      <c r="B14" s="272" t="s">
+      <c r="B14" s="273" t="s">
         <v>244</v>
       </c>
       <c r="C14" s="86" t="s">
@@ -17999,7 +18149,7 @@
       <c r="A15" s="110">
         <v>12</v>
       </c>
-      <c r="B15" s="274"/>
+      <c r="B15" s="275"/>
       <c r="C15" s="86" t="s">
         <v>246</v>
       </c>
@@ -18085,7 +18235,7 @@
       <c r="A17" s="110">
         <v>14</v>
       </c>
-      <c r="B17" s="272" t="s">
+      <c r="B17" s="273" t="s">
         <v>204</v>
       </c>
       <c r="C17" s="86" t="s">
@@ -18130,7 +18280,7 @@
       <c r="A18" s="110">
         <v>15</v>
       </c>
-      <c r="B18" s="273"/>
+      <c r="B18" s="274"/>
       <c r="C18" s="86" t="s">
         <v>232</v>
       </c>
@@ -18173,7 +18323,7 @@
       <c r="A19" s="110">
         <v>16</v>
       </c>
-      <c r="B19" s="273"/>
+      <c r="B19" s="274"/>
       <c r="C19" s="86" t="s">
         <v>233</v>
       </c>
@@ -18216,7 +18366,7 @@
       <c r="A20" s="110">
         <v>17</v>
       </c>
-      <c r="B20" s="274"/>
+      <c r="B20" s="275"/>
       <c r="C20" s="86" t="s">
         <v>234</v>
       </c>
@@ -18259,7 +18409,7 @@
       <c r="A21" s="110">
         <v>18</v>
       </c>
-      <c r="B21" s="275" t="s">
+      <c r="B21" s="276" t="s">
         <v>235</v>
       </c>
       <c r="C21" s="86" t="s">
@@ -18304,7 +18454,7 @@
       <c r="A22" s="110">
         <v>19</v>
       </c>
-      <c r="B22" s="275"/>
+      <c r="B22" s="276"/>
       <c r="C22" s="86" t="s">
         <v>237</v>
       </c>
@@ -18376,11 +18526,12 @@
   </sheetData>
   <autoFilter ref="A3:AH3"/>
   <mergeCells count="19">
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="G2:H2"/>
@@ -18389,12 +18540,11 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="1">
@@ -18561,7 +18711,7 @@
       <c r="B4" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="278"/>
+      <c r="C4" s="284"/>
       <c r="D4" s="39" t="s">
         <v>187</v>
       </c>
@@ -18584,7 +18734,7 @@
       <c r="B5" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="278"/>
+      <c r="C5" s="284"/>
       <c r="D5" s="39" t="s">
         <v>188</v>
       </c>
@@ -18680,7 +18830,7 @@
       <c r="B9" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="278"/>
+      <c r="C9" s="284"/>
       <c r="D9" s="42" t="s">
         <v>197</v>
       </c>
@@ -18703,7 +18853,7 @@
       <c r="B10" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="278"/>
+      <c r="C10" s="284"/>
       <c r="D10" s="42" t="s">
         <v>198</v>
       </c>
@@ -19272,11 +19422,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="168" customFormat="1" ht="48" customHeight="1">
-      <c r="A1" s="288" t="s">
+      <c r="A1" s="286" t="s">
         <v>559</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
       <c r="D1" s="165"/>
       <c r="E1" s="165"/>
       <c r="F1" s="166"/>
@@ -19289,60 +19439,60 @@
       <c r="M1" s="165"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A2" s="290" t="s">
+      <c r="A2" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="281" t="s">
+      <c r="B2" s="289" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="281" t="s">
+      <c r="C2" s="289" t="s">
         <v>258</v>
       </c>
       <c r="D2" s="169" t="s">
         <v>259</v>
       </c>
       <c r="E2" s="169"/>
-      <c r="F2" s="281" t="s">
+      <c r="F2" s="289" t="s">
         <v>263</v>
       </c>
-      <c r="G2" s="282" t="s">
+      <c r="G2" s="291" t="s">
         <v>262</v>
       </c>
-      <c r="H2" s="284" t="s">
+      <c r="H2" s="293" t="s">
         <v>468</v>
       </c>
-      <c r="I2" s="284" t="s">
+      <c r="I2" s="293" t="s">
         <v>469</v>
       </c>
-      <c r="J2" s="280" t="s">
+      <c r="J2" s="285" t="s">
         <v>260</v>
       </c>
-      <c r="K2" s="280" t="s">
+      <c r="K2" s="285" t="s">
         <v>261</v>
       </c>
-      <c r="L2" s="280" t="s">
+      <c r="L2" s="285" t="s">
         <v>336</v>
       </c>
-      <c r="M2" s="280" t="s">
+      <c r="M2" s="285" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A3" s="290"/>
-      <c r="B3" s="281"/>
-      <c r="C3" s="281"/>
+      <c r="A3" s="288"/>
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
       <c r="D3" s="170"/>
       <c r="E3" s="171" t="s">
         <v>291</v>
       </c>
-      <c r="F3" s="281"/>
-      <c r="G3" s="283"/>
-      <c r="H3" s="284"/>
-      <c r="I3" s="284"/>
-      <c r="J3" s="280"/>
-      <c r="K3" s="280"/>
-      <c r="L3" s="280"/>
-      <c r="M3" s="280"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="293"/>
+      <c r="I3" s="293"/>
+      <c r="J3" s="285"/>
+      <c r="K3" s="285"/>
+      <c r="L3" s="285"/>
+      <c r="M3" s="285"/>
     </row>
     <row r="4" spans="1:14" ht="94.5">
       <c r="A4" s="231">
@@ -20168,7 +20318,7 @@
       <c r="F26" s="129">
         <v>1</v>
       </c>
-      <c r="G26" s="285" t="s">
+      <c r="G26" s="294" t="s">
         <v>516</v>
       </c>
       <c r="H26" s="201" t="s">
@@ -20207,7 +20357,7 @@
       <c r="F27" s="129">
         <v>1</v>
       </c>
-      <c r="G27" s="286"/>
+      <c r="G27" s="295"/>
       <c r="H27" s="191" t="s">
         <v>493</v>
       </c>
@@ -20244,7 +20394,7 @@
       <c r="F28" s="129">
         <v>1</v>
       </c>
-      <c r="G28" s="286"/>
+      <c r="G28" s="295"/>
       <c r="H28" s="191" t="s">
         <v>493</v>
       </c>
@@ -20281,7 +20431,7 @@
       <c r="F29" s="129">
         <v>1</v>
       </c>
-      <c r="G29" s="287"/>
+      <c r="G29" s="296"/>
       <c r="H29" s="191" t="s">
         <v>493</v>
       </c>
@@ -20468,7 +20618,7 @@
       <c r="F34" s="129">
         <v>1</v>
       </c>
-      <c r="G34" s="279"/>
+      <c r="G34" s="290"/>
       <c r="H34" s="198" t="s">
         <v>484</v>
       </c>
@@ -21723,12 +21873,6 @@
   </sheetData>
   <autoFilter ref="A3:M69"/>
   <mergeCells count="14">
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
     <mergeCell ref="G34"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
@@ -21737,6 +21881,12 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="G26:G29"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21747,13 +21897,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G16" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G22" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -21771,17 +21921,18 @@
     <col min="11" max="11" width="13.375" style="205" customWidth="1"/>
     <col min="12" max="12" width="13.375" style="233" customWidth="1"/>
     <col min="13" max="13" width="12.375" style="205" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="133" customWidth="1"/>
-    <col min="15" max="15" width="13.125" style="133" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="133"/>
+    <col min="14" max="14" width="12.375" style="205" customWidth="1"/>
+    <col min="15" max="15" width="19.875" style="133" customWidth="1"/>
+    <col min="16" max="16" width="13.125" style="133" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="133"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="168" customFormat="1" ht="48" customHeight="1">
-      <c r="A1" s="288" t="s">
+    <row r="1" spans="1:16" s="168" customFormat="1" ht="48" customHeight="1">
+      <c r="A1" s="286" t="s">
         <v>559</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
       <c r="D1" s="165"/>
       <c r="E1" s="165"/>
       <c r="F1" s="166"/>
@@ -21792,69 +21943,74 @@
       <c r="K1" s="167"/>
       <c r="L1" s="246"/>
       <c r="M1" s="167"/>
-      <c r="N1" s="165"/>
-    </row>
-    <row r="2" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A2" s="290" t="s">
+      <c r="N1" s="167"/>
+      <c r="O1" s="165"/>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" customHeight="1">
+      <c r="A2" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="281" t="s">
+      <c r="B2" s="289" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="281" t="s">
+      <c r="C2" s="289" t="s">
         <v>258</v>
       </c>
       <c r="D2" s="169" t="s">
         <v>259</v>
       </c>
       <c r="E2" s="169"/>
-      <c r="F2" s="281" t="s">
+      <c r="F2" s="289" t="s">
         <v>263</v>
       </c>
-      <c r="G2" s="282" t="s">
+      <c r="G2" s="291" t="s">
         <v>262</v>
       </c>
-      <c r="H2" s="284" t="s">
+      <c r="H2" s="293" t="s">
         <v>468</v>
       </c>
-      <c r="I2" s="284" t="s">
+      <c r="I2" s="293" t="s">
         <v>469</v>
       </c>
-      <c r="J2" s="280" t="s">
+      <c r="J2" s="285" t="s">
         <v>260</v>
       </c>
-      <c r="K2" s="280" t="s">
+      <c r="K2" s="285" t="s">
         <v>261</v>
       </c>
-      <c r="L2" s="291" t="s">
+      <c r="L2" s="297" t="s">
         <v>561</v>
       </c>
-      <c r="M2" s="280" t="s">
+      <c r="M2" s="285" t="s">
         <v>336</v>
       </c>
-      <c r="N2" s="280" t="s">
+      <c r="N2" s="258"/>
+      <c r="O2" s="285" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A3" s="290"/>
-      <c r="B3" s="281"/>
-      <c r="C3" s="281"/>
+    <row r="3" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A3" s="288"/>
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
       <c r="D3" s="170"/>
       <c r="E3" s="171" t="s">
         <v>291</v>
       </c>
-      <c r="F3" s="281"/>
-      <c r="G3" s="283"/>
-      <c r="H3" s="284"/>
-      <c r="I3" s="284"/>
-      <c r="J3" s="280"/>
-      <c r="K3" s="280"/>
-      <c r="L3" s="291"/>
-      <c r="M3" s="280"/>
-      <c r="N3" s="280"/>
-    </row>
-    <row r="4" spans="1:15" ht="94.5">
+      <c r="F3" s="289"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="293"/>
+      <c r="I3" s="293"/>
+      <c r="J3" s="285"/>
+      <c r="K3" s="285"/>
+      <c r="L3" s="297"/>
+      <c r="M3" s="285"/>
+      <c r="N3" s="258" t="s">
+        <v>605</v>
+      </c>
+      <c r="O3" s="285"/>
+    </row>
+    <row r="4" spans="1:16" ht="94.5">
       <c r="A4" s="231">
         <v>1</v>
       </c>
@@ -21890,11 +22046,14 @@
         <v>3.3</v>
       </c>
       <c r="M4" s="156"/>
-      <c r="N4" s="137" t="s">
+      <c r="N4" s="156" t="s">
+        <v>609</v>
+      </c>
+      <c r="O4" s="137" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="69">
+    <row r="5" spans="1:16" ht="69">
       <c r="A5" s="231">
         <v>2</v>
       </c>
@@ -21930,11 +22089,14 @@
         <v>562</v>
       </c>
       <c r="M5" s="156"/>
-      <c r="N5" s="137" t="s">
+      <c r="N5" s="156" t="s">
+        <v>616</v>
+      </c>
+      <c r="O5" s="137" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="78" customHeight="1">
+    <row r="6" spans="1:16" ht="78" customHeight="1">
       <c r="A6" s="231">
         <v>3</v>
       </c>
@@ -21970,11 +22132,14 @@
         <v>563</v>
       </c>
       <c r="M6" s="156"/>
-      <c r="N6" s="137" t="s">
+      <c r="N6" s="156" t="s">
+        <v>609</v>
+      </c>
+      <c r="O6" s="137" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="90" customHeight="1">
+    <row r="7" spans="1:16" ht="90" customHeight="1">
       <c r="A7" s="231">
         <v>4</v>
       </c>
@@ -22010,11 +22175,14 @@
         <v>564</v>
       </c>
       <c r="M7" s="156"/>
-      <c r="N7" s="137" t="s">
+      <c r="N7" s="156" t="s">
+        <v>617</v>
+      </c>
+      <c r="O7" s="137" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="68.25" customHeight="1">
+    <row r="8" spans="1:16" ht="68.25" customHeight="1">
       <c r="A8" s="231">
         <v>5</v>
       </c>
@@ -22050,11 +22218,14 @@
         <v>564</v>
       </c>
       <c r="M8" s="156"/>
-      <c r="N8" s="137" t="s">
+      <c r="N8" s="156" t="s">
+        <v>609</v>
+      </c>
+      <c r="O8" s="137" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="150.75" customHeight="1">
+    <row r="9" spans="1:16" ht="150.75" customHeight="1">
       <c r="A9" s="231">
         <v>6</v>
       </c>
@@ -22090,11 +22261,14 @@
         <v>565</v>
       </c>
       <c r="M9" s="156"/>
-      <c r="N9" s="137" t="s">
+      <c r="N9" s="156" t="s">
+        <v>618</v>
+      </c>
+      <c r="O9" s="137" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="243" customFormat="1" ht="141" customHeight="1">
+    <row r="10" spans="1:16" s="243" customFormat="1" ht="141" customHeight="1">
       <c r="A10" s="235">
         <v>7</v>
       </c>
@@ -22128,14 +22302,15 @@
         <v>573</v>
       </c>
       <c r="M10" s="242"/>
-      <c r="N10" s="236" t="s">
+      <c r="N10" s="242"/>
+      <c r="O10" s="236" t="s">
         <v>338</v>
       </c>
-      <c r="O10" s="253" t="s">
+      <c r="P10" s="253" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="63">
+    <row r="11" spans="1:16" ht="63">
       <c r="A11" s="231">
         <v>8</v>
       </c>
@@ -22171,11 +22346,14 @@
         <v>564</v>
       </c>
       <c r="M11" s="156"/>
-      <c r="N11" s="137" t="s">
+      <c r="N11" s="156" t="s">
+        <v>608</v>
+      </c>
+      <c r="O11" s="137" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="47.25">
+    <row r="12" spans="1:16" ht="47.25">
       <c r="A12" s="231">
         <v>9</v>
       </c>
@@ -22211,11 +22389,14 @@
         <v>565</v>
       </c>
       <c r="M12" s="156"/>
-      <c r="N12" s="137" t="s">
+      <c r="N12" s="156" t="s">
+        <v>608</v>
+      </c>
+      <c r="O12" s="137" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="116" customFormat="1" ht="69.75" customHeight="1">
+    <row r="13" spans="1:16" s="116" customFormat="1" ht="69.75" customHeight="1">
       <c r="A13" s="231">
         <v>18</v>
       </c>
@@ -22251,11 +22432,12 @@
         <v>568</v>
       </c>
       <c r="M13" s="120"/>
-      <c r="N13" s="202" t="s">
+      <c r="N13" s="156"/>
+      <c r="O13" s="202" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="102.75" customHeight="1">
+    <row r="14" spans="1:16" ht="102.75" customHeight="1">
       <c r="A14" s="231">
         <v>20</v>
       </c>
@@ -22291,14 +22473,15 @@
         <v>566</v>
       </c>
       <c r="M14" s="137"/>
-      <c r="N14" s="137" t="s">
+      <c r="N14" s="156"/>
+      <c r="O14" s="137" t="s">
         <v>357</v>
       </c>
-      <c r="O14" s="215" t="s">
+      <c r="P14" s="215" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="103.5">
+    <row r="15" spans="1:16" ht="103.5">
       <c r="A15" s="231">
         <v>27</v>
       </c>
@@ -22336,11 +22519,14 @@
         <v>570</v>
       </c>
       <c r="M15" s="156"/>
-      <c r="N15" s="204" t="s">
+      <c r="N15" s="156" t="s">
+        <v>608</v>
+      </c>
+      <c r="O15" s="204" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="141" customHeight="1">
+    <row r="16" spans="1:16" ht="141" customHeight="1">
       <c r="A16" s="231">
         <v>28</v>
       </c>
@@ -22376,11 +22562,14 @@
         <v>565</v>
       </c>
       <c r="M16" s="156"/>
-      <c r="N16" s="137" t="s">
+      <c r="N16" s="156" t="s">
+        <v>608</v>
+      </c>
+      <c r="O16" s="137" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="82.5" customHeight="1">
+    <row r="17" spans="1:15" ht="82.5" customHeight="1">
       <c r="A17" s="231">
         <v>29</v>
       </c>
@@ -22416,11 +22605,14 @@
         <v>571</v>
       </c>
       <c r="M17" s="137"/>
-      <c r="N17" s="128" t="s">
+      <c r="N17" s="156" t="s">
+        <v>608</v>
+      </c>
+      <c r="O17" s="128" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="26.25" customHeight="1">
+    <row r="18" spans="1:15" ht="26.25" customHeight="1">
       <c r="A18" s="231">
         <v>37</v>
       </c>
@@ -22456,11 +22648,14 @@
         <v>571</v>
       </c>
       <c r="M18" s="156"/>
-      <c r="N18" s="137" t="s">
+      <c r="N18" s="156" t="s">
+        <v>608</v>
+      </c>
+      <c r="O18" s="137" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="126">
+    <row r="19" spans="1:15" ht="126">
       <c r="A19" s="231">
         <v>63</v>
       </c>
@@ -22471,7 +22666,7 @@
         <v>424</v>
       </c>
       <c r="D19" s="127" t="s">
-        <v>425</v>
+        <v>607</v>
       </c>
       <c r="E19" s="161" t="s">
         <v>447</v>
@@ -22496,15 +22691,17 @@
         <v>572</v>
       </c>
       <c r="M19" s="137"/>
-      <c r="N19" s="204" t="s">
+      <c r="N19" s="156" t="s">
+        <v>608</v>
+      </c>
+      <c r="O19" s="204" t="s">
         <v>338</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:N19"/>
   <mergeCells count="13">
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -22526,14 +22723,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G6" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -22552,17 +22748,18 @@
     <col min="12" max="12" width="13.375" style="205" customWidth="1"/>
     <col min="13" max="13" width="13.375" style="233" customWidth="1"/>
     <col min="14" max="14" width="12.375" style="205" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" style="133" customWidth="1"/>
-    <col min="16" max="16" width="13.125" style="133" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="133"/>
+    <col min="15" max="15" width="12.375" style="205" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="133" customWidth="1"/>
+    <col min="17" max="17" width="13.125" style="133" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="133"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="168" customFormat="1" ht="48" customHeight="1">
-      <c r="A1" s="288" t="s">
+    <row r="1" spans="1:17" s="168" customFormat="1" ht="48" customHeight="1">
+      <c r="A1" s="286" t="s">
         <v>559</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
       <c r="D1" s="165"/>
       <c r="E1" s="165"/>
       <c r="F1" s="166"/>
@@ -22574,73 +22771,78 @@
       <c r="L1" s="167"/>
       <c r="M1" s="246"/>
       <c r="N1" s="167"/>
-      <c r="O1" s="165"/>
-    </row>
-    <row r="2" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A2" s="290" t="s">
+      <c r="O1" s="167"/>
+      <c r="P1" s="165"/>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A2" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="281" t="s">
+      <c r="B2" s="289" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="281" t="s">
+      <c r="C2" s="289" t="s">
         <v>258</v>
       </c>
       <c r="D2" s="169" t="s">
         <v>259</v>
       </c>
       <c r="E2" s="169"/>
-      <c r="F2" s="281" t="s">
+      <c r="F2" s="289" t="s">
         <v>263</v>
       </c>
-      <c r="G2" s="282" t="s">
+      <c r="G2" s="291" t="s">
         <v>262</v>
       </c>
-      <c r="H2" s="284" t="s">
+      <c r="H2" s="293" t="s">
         <v>468</v>
       </c>
-      <c r="I2" s="284" t="s">
+      <c r="I2" s="293" t="s">
         <v>469</v>
       </c>
-      <c r="J2" s="280" t="s">
+      <c r="J2" s="285" t="s">
         <v>260</v>
       </c>
       <c r="K2" s="256" t="s">
         <v>598</v>
       </c>
-      <c r="L2" s="280" t="s">
+      <c r="L2" s="285" t="s">
         <v>261</v>
       </c>
-      <c r="M2" s="291" t="s">
+      <c r="M2" s="297" t="s">
         <v>567</v>
       </c>
-      <c r="N2" s="280" t="s">
+      <c r="N2" s="285" t="s">
         <v>336</v>
       </c>
-      <c r="O2" s="280" t="s">
+      <c r="O2" s="258"/>
+      <c r="P2" s="285" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A3" s="290"/>
-      <c r="B3" s="281"/>
-      <c r="C3" s="281"/>
+    <row r="3" spans="1:17" ht="25.5" customHeight="1">
+      <c r="A3" s="288"/>
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
       <c r="D3" s="170"/>
       <c r="E3" s="171" t="s">
         <v>291</v>
       </c>
-      <c r="F3" s="281"/>
-      <c r="G3" s="283"/>
-      <c r="H3" s="284"/>
-      <c r="I3" s="284"/>
-      <c r="J3" s="280"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="293"/>
+      <c r="I3" s="293"/>
+      <c r="J3" s="285"/>
       <c r="K3" s="256"/>
-      <c r="L3" s="280"/>
-      <c r="M3" s="291"/>
-      <c r="N3" s="280"/>
-      <c r="O3" s="280"/>
-    </row>
-    <row r="4" spans="1:16" s="116" customFormat="1" ht="69.75" hidden="1" customHeight="1">
+      <c r="L3" s="285"/>
+      <c r="M3" s="297"/>
+      <c r="N3" s="285"/>
+      <c r="O3" s="258" t="s">
+        <v>606</v>
+      </c>
+      <c r="P3" s="285"/>
+    </row>
+    <row r="4" spans="1:17" s="116" customFormat="1" ht="69.75" customHeight="1">
       <c r="A4" s="231">
         <v>18</v>
       </c>
@@ -22677,11 +22879,12 @@
         <v>575</v>
       </c>
       <c r="N4" s="120"/>
-      <c r="O4" s="202" t="s">
+      <c r="O4" s="120"/>
+      <c r="P4" s="202" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="102.75" hidden="1" customHeight="1">
+    <row r="5" spans="1:17" ht="102.75" customHeight="1">
       <c r="A5" s="231">
         <v>20</v>
       </c>
@@ -22718,11 +22921,12 @@
         <v>576</v>
       </c>
       <c r="N5" s="137"/>
-      <c r="O5" s="137" t="s">
+      <c r="O5" s="137"/>
+      <c r="P5" s="137" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="141" customHeight="1">
+    <row r="6" spans="1:17" ht="141" customHeight="1">
       <c r="A6" s="231">
         <v>28</v>
       </c>
@@ -22761,11 +22965,14 @@
         <v>3.3</v>
       </c>
       <c r="N6" s="156"/>
-      <c r="O6" s="137" t="s">
+      <c r="O6" s="156" t="s">
+        <v>609</v>
+      </c>
+      <c r="P6" s="137" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="82.5" customHeight="1">
+    <row r="7" spans="1:17" ht="82.5" customHeight="1">
       <c r="A7" s="231">
         <v>29</v>
       </c>
@@ -22804,11 +23011,14 @@
         <v>564</v>
       </c>
       <c r="N7" s="137"/>
-      <c r="O7" s="128" t="s">
+      <c r="O7" s="137" t="s">
+        <v>609</v>
+      </c>
+      <c r="P7" s="128" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="25.5" customHeight="1">
+    <row r="8" spans="1:17" ht="25.5" customHeight="1">
       <c r="A8" s="231">
         <v>30</v>
       </c>
@@ -22847,11 +23057,14 @@
         <v>580</v>
       </c>
       <c r="N8" s="156"/>
-      <c r="O8" s="137" t="s">
+      <c r="O8" s="156" t="s">
+        <v>612</v>
+      </c>
+      <c r="P8" s="137" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="26.25" customHeight="1">
+    <row r="9" spans="1:17" ht="26.25" customHeight="1">
       <c r="A9" s="231">
         <v>37</v>
       </c>
@@ -22890,11 +23103,14 @@
         <v>564</v>
       </c>
       <c r="N9" s="156"/>
-      <c r="O9" s="137" t="s">
+      <c r="O9" s="156" t="s">
+        <v>599</v>
+      </c>
+      <c r="P9" s="137" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="39" customHeight="1">
+    <row r="10" spans="1:17" ht="39" customHeight="1">
       <c r="A10" s="231">
         <v>38</v>
       </c>
@@ -22929,11 +23145,14 @@
         <v>577</v>
       </c>
       <c r="N10" s="156"/>
-      <c r="O10" s="137" t="s">
+      <c r="O10" s="156" t="s">
+        <v>609</v>
+      </c>
+      <c r="P10" s="137" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="213" customFormat="1" ht="39" customHeight="1">
+    <row r="11" spans="1:17" s="213" customFormat="1" ht="39" customHeight="1">
       <c r="A11" s="231">
         <v>39</v>
       </c>
@@ -22968,14 +23187,17 @@
         <v>578</v>
       </c>
       <c r="N11" s="229"/>
-      <c r="O11" s="216" t="s">
+      <c r="O11" s="229" t="s">
+        <v>599</v>
+      </c>
+      <c r="P11" s="216" t="s">
         <v>338</v>
       </c>
-      <c r="P11" s="213" t="s">
+      <c r="Q11" s="213" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="31.5" hidden="1">
+    <row r="12" spans="1:17" ht="31.5">
       <c r="A12" s="231">
         <v>43</v>
       </c>
@@ -23009,10 +23231,13 @@
       </c>
       <c r="N12" s="137"/>
       <c r="O12" s="137" t="s">
+        <v>609</v>
+      </c>
+      <c r="P12" s="137" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="31.5" hidden="1">
+    <row r="13" spans="1:17" ht="31.5">
       <c r="A13" s="231">
         <v>45</v>
       </c>
@@ -23046,10 +23271,13 @@
       </c>
       <c r="N13" s="137"/>
       <c r="O13" s="137" t="s">
+        <v>609</v>
+      </c>
+      <c r="P13" s="137" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1">
+    <row r="14" spans="1:17">
       <c r="A14" s="231">
         <v>47</v>
       </c>
@@ -23082,14 +23310,17 @@
         <v>573</v>
       </c>
       <c r="N14" s="137"/>
-      <c r="O14" s="204" t="s">
+      <c r="O14" s="137" t="s">
+        <v>609</v>
+      </c>
+      <c r="P14" s="204" t="s">
         <v>338</v>
       </c>
-      <c r="P14" s="133" t="s">
+      <c r="Q14" s="133" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="31.5">
+    <row r="15" spans="1:17" ht="31.5">
       <c r="A15" s="231">
         <v>53</v>
       </c>
@@ -23127,10 +23358,13 @@
       </c>
       <c r="N15" s="137"/>
       <c r="O15" s="137" t="s">
+        <v>613</v>
+      </c>
+      <c r="P15" s="137" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="267" customHeight="1">
+    <row r="16" spans="1:17" ht="267" customHeight="1">
       <c r="A16" s="231">
         <v>60</v>
       </c>
@@ -23167,11 +23401,14 @@
         <v>583</v>
       </c>
       <c r="N16" s="137"/>
-      <c r="O16" s="204" t="s">
+      <c r="O16" s="137" t="s">
+        <v>609</v>
+      </c>
+      <c r="P16" s="204" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="113.25" customHeight="1">
+    <row r="17" spans="1:16" ht="113.25" customHeight="1">
       <c r="A17" s="231">
         <v>61</v>
       </c>
@@ -23208,11 +23445,14 @@
         <v>584</v>
       </c>
       <c r="N17" s="137"/>
-      <c r="O17" s="204" t="s">
+      <c r="O17" s="137" t="s">
+        <v>614</v>
+      </c>
+      <c r="P17" s="204" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="126">
+    <row r="18" spans="1:16" ht="126">
       <c r="A18" s="231">
         <v>63</v>
       </c>
@@ -23249,11 +23489,14 @@
         <v>584</v>
       </c>
       <c r="N18" s="137"/>
-      <c r="O18" s="204" t="s">
+      <c r="O18" s="137" t="s">
+        <v>609</v>
+      </c>
+      <c r="P18" s="204" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="54">
+    <row r="19" spans="1:16" ht="54">
       <c r="A19" s="231">
         <v>64</v>
       </c>
@@ -23288,27 +23531,17 @@
         <v>576</v>
       </c>
       <c r="N19" s="137"/>
-      <c r="O19" s="211" t="s">
+      <c r="O19" s="137" t="s">
+        <v>615</v>
+      </c>
+      <c r="P19" s="211" t="s">
         <v>357</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:O19">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="王富贵"/>
-        <filter val="王富贵_x000a_CMAPI所有接口日志规范"/>
-        <filter val="王富贵，聂家刚"/>
-        <filter val="王熙/王富贵"/>
-        <filter val="肖扬，杨椋"/>
-        <filter val="杨椋、肖扬"/>
-        <filter val="杨玉泉，肖扬"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="13">
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -23330,13 +23563,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -23354,17 +23587,18 @@
     <col min="11" max="11" width="13.375" style="205" customWidth="1"/>
     <col min="12" max="12" width="13.375" style="233" customWidth="1"/>
     <col min="13" max="13" width="12.375" style="205" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="133" customWidth="1"/>
-    <col min="15" max="15" width="13.125" style="133" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="133"/>
+    <col min="14" max="14" width="12.375" style="205" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="133" customWidth="1"/>
+    <col min="16" max="16" width="13.125" style="133" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="133"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="168" customFormat="1" ht="48" customHeight="1">
-      <c r="A1" s="288" t="s">
+    <row r="1" spans="1:15" s="168" customFormat="1" ht="48" customHeight="1">
+      <c r="A1" s="286" t="s">
         <v>559</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
       <c r="D1" s="165"/>
       <c r="E1" s="165"/>
       <c r="F1" s="166"/>
@@ -23375,69 +23609,74 @@
       <c r="K1" s="167"/>
       <c r="L1" s="246"/>
       <c r="M1" s="167"/>
-      <c r="N1" s="165"/>
-    </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A2" s="290" t="s">
+      <c r="N1" s="167"/>
+      <c r="O1" s="165"/>
+    </row>
+    <row r="2" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A2" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="281" t="s">
+      <c r="B2" s="289" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="281" t="s">
+      <c r="C2" s="289" t="s">
         <v>258</v>
       </c>
       <c r="D2" s="169" t="s">
         <v>259</v>
       </c>
       <c r="E2" s="169"/>
-      <c r="F2" s="281" t="s">
+      <c r="F2" s="289" t="s">
         <v>263</v>
       </c>
-      <c r="G2" s="282" t="s">
+      <c r="G2" s="291" t="s">
         <v>262</v>
       </c>
-      <c r="H2" s="284" t="s">
+      <c r="H2" s="293" t="s">
         <v>468</v>
       </c>
-      <c r="I2" s="284" t="s">
+      <c r="I2" s="293" t="s">
         <v>469</v>
       </c>
-      <c r="J2" s="280" t="s">
+      <c r="J2" s="285" t="s">
         <v>260</v>
       </c>
-      <c r="K2" s="280" t="s">
+      <c r="K2" s="285" t="s">
         <v>261</v>
       </c>
-      <c r="L2" s="291" t="s">
+      <c r="L2" s="297" t="s">
         <v>561</v>
       </c>
-      <c r="M2" s="280" t="s">
+      <c r="M2" s="285" t="s">
         <v>336</v>
       </c>
-      <c r="N2" s="280" t="s">
+      <c r="N2" s="258"/>
+      <c r="O2" s="285" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A3" s="290"/>
-      <c r="B3" s="281"/>
-      <c r="C3" s="281"/>
+    <row r="3" spans="1:15" ht="25.5" customHeight="1">
+      <c r="A3" s="288"/>
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
       <c r="D3" s="170"/>
       <c r="E3" s="171" t="s">
         <v>291</v>
       </c>
-      <c r="F3" s="281"/>
-      <c r="G3" s="283"/>
-      <c r="H3" s="284"/>
-      <c r="I3" s="284"/>
-      <c r="J3" s="280"/>
-      <c r="K3" s="280"/>
-      <c r="L3" s="291"/>
-      <c r="M3" s="280"/>
-      <c r="N3" s="280"/>
-    </row>
-    <row r="4" spans="1:14" ht="63">
+      <c r="F3" s="289"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="293"/>
+      <c r="I3" s="293"/>
+      <c r="J3" s="285"/>
+      <c r="K3" s="285"/>
+      <c r="L3" s="297"/>
+      <c r="M3" s="285"/>
+      <c r="N3" s="258" t="s">
+        <v>605</v>
+      </c>
+      <c r="O3" s="285"/>
+    </row>
+    <row r="4" spans="1:15" ht="63">
       <c r="A4" s="231">
         <v>26</v>
       </c>
@@ -23473,11 +23712,14 @@
         <v>3.3</v>
       </c>
       <c r="M4" s="156"/>
-      <c r="N4" s="204" t="s">
+      <c r="N4" s="156" t="s">
+        <v>599</v>
+      </c>
+      <c r="O4" s="204" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="58.5">
+    <row r="5" spans="1:15" ht="58.5">
       <c r="A5" s="231">
         <v>55</v>
       </c>
@@ -23513,11 +23755,14 @@
         <v>595</v>
       </c>
       <c r="M5" s="137"/>
-      <c r="N5" s="204" t="s">
+      <c r="N5" s="137" t="s">
+        <v>608</v>
+      </c>
+      <c r="O5" s="204" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="58.5">
+    <row r="6" spans="1:15" ht="58.5">
       <c r="A6" s="231">
         <v>56</v>
       </c>
@@ -23553,11 +23798,14 @@
         <v>584</v>
       </c>
       <c r="M6" s="137"/>
-      <c r="N6" s="204" t="s">
+      <c r="N6" s="137" t="s">
+        <v>609</v>
+      </c>
+      <c r="O6" s="204" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="78.75">
+    <row r="7" spans="1:15" ht="78.75">
       <c r="A7" s="231">
         <v>57</v>
       </c>
@@ -23593,11 +23841,14 @@
         <v>594</v>
       </c>
       <c r="M7" s="137"/>
-      <c r="N7" s="204" t="s">
+      <c r="N7" s="137" t="s">
+        <v>610</v>
+      </c>
+      <c r="O7" s="204" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="126">
+    <row r="8" spans="1:15" ht="126">
       <c r="A8" s="231">
         <v>63</v>
       </c>
@@ -23633,15 +23884,17 @@
         <v>586</v>
       </c>
       <c r="M8" s="137"/>
-      <c r="N8" s="204" t="s">
+      <c r="N8" s="137" t="s">
+        <v>609</v>
+      </c>
+      <c r="O8" s="204" t="s">
         <v>338</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:N8"/>
   <mergeCells count="13">
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -23663,13 +23916,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G16" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -23686,18 +23939,18 @@
     <col min="10" max="10" width="15.375" style="205" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="205" customWidth="1"/>
     <col min="12" max="12" width="12.375" style="205" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.375" style="205" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="133" customWidth="1"/>
-    <col min="15" max="15" width="13.125" style="133" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="133"/>
+    <col min="13" max="14" width="13.375" style="205" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="133" customWidth="1"/>
+    <col min="16" max="16" width="13.125" style="133" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="133"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="168" customFormat="1" ht="48" customHeight="1">
-      <c r="A1" s="288" t="s">
+    <row r="1" spans="1:15" s="168" customFormat="1" ht="48" customHeight="1">
+      <c r="A1" s="286" t="s">
         <v>559</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
       <c r="D1" s="165"/>
       <c r="E1" s="165"/>
       <c r="F1" s="166"/>
@@ -23708,69 +23961,74 @@
       <c r="K1" s="167"/>
       <c r="L1" s="167"/>
       <c r="M1" s="167"/>
-      <c r="N1" s="165"/>
-    </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A2" s="290" t="s">
+      <c r="N1" s="167"/>
+      <c r="O1" s="165"/>
+    </row>
+    <row r="2" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A2" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="281" t="s">
+      <c r="B2" s="289" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="281" t="s">
+      <c r="C2" s="289" t="s">
         <v>258</v>
       </c>
       <c r="D2" s="169" t="s">
         <v>259</v>
       </c>
       <c r="E2" s="169"/>
-      <c r="F2" s="281" t="s">
+      <c r="F2" s="289" t="s">
         <v>263</v>
       </c>
-      <c r="G2" s="282" t="s">
+      <c r="G2" s="291" t="s">
         <v>262</v>
       </c>
-      <c r="H2" s="284" t="s">
+      <c r="H2" s="293" t="s">
         <v>468</v>
       </c>
-      <c r="I2" s="284" t="s">
+      <c r="I2" s="293" t="s">
         <v>469</v>
       </c>
-      <c r="J2" s="280" t="s">
+      <c r="J2" s="285" t="s">
         <v>260</v>
       </c>
-      <c r="K2" s="280" t="s">
+      <c r="K2" s="285" t="s">
         <v>261</v>
       </c>
-      <c r="L2" s="280" t="s">
+      <c r="L2" s="285" t="s">
         <v>336</v>
       </c>
-      <c r="M2" s="280" t="s">
+      <c r="M2" s="285" t="s">
         <v>561</v>
       </c>
-      <c r="N2" s="280" t="s">
+      <c r="N2" s="260"/>
+      <c r="O2" s="285" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A3" s="290"/>
-      <c r="B3" s="281"/>
-      <c r="C3" s="281"/>
+    <row r="3" spans="1:15" ht="25.5" customHeight="1">
+      <c r="A3" s="288"/>
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
       <c r="D3" s="170"/>
       <c r="E3" s="171" t="s">
         <v>291</v>
       </c>
-      <c r="F3" s="281"/>
-      <c r="G3" s="283"/>
-      <c r="H3" s="284"/>
-      <c r="I3" s="284"/>
-      <c r="J3" s="280"/>
-      <c r="K3" s="280"/>
-      <c r="L3" s="280"/>
-      <c r="M3" s="280"/>
-      <c r="N3" s="280"/>
-    </row>
-    <row r="4" spans="1:14" ht="141.75">
+      <c r="F3" s="289"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="293"/>
+      <c r="I3" s="293"/>
+      <c r="J3" s="285"/>
+      <c r="K3" s="285"/>
+      <c r="L3" s="285"/>
+      <c r="M3" s="285"/>
+      <c r="N3" s="260" t="s">
+        <v>619</v>
+      </c>
+      <c r="O3" s="285"/>
+    </row>
+    <row r="4" spans="1:15" ht="141.75">
       <c r="A4" s="231">
         <v>10</v>
       </c>
@@ -23804,11 +24062,12 @@
       </c>
       <c r="L4" s="137"/>
       <c r="M4" s="202"/>
-      <c r="N4" s="128" t="s">
+      <c r="N4" s="202"/>
+      <c r="O4" s="128" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="110.25">
+    <row r="5" spans="1:15" ht="110.25">
       <c r="A5" s="231">
         <v>11</v>
       </c>
@@ -23842,11 +24101,12 @@
       </c>
       <c r="L5" s="137"/>
       <c r="M5" s="203"/>
-      <c r="N5" s="128" t="s">
+      <c r="N5" s="203"/>
+      <c r="O5" s="128" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="189">
+    <row r="6" spans="1:15" ht="189">
       <c r="A6" s="231">
         <v>12</v>
       </c>
@@ -23880,11 +24140,12 @@
       </c>
       <c r="L6" s="137"/>
       <c r="M6" s="203"/>
-      <c r="N6" s="128" t="s">
+      <c r="N6" s="203"/>
+      <c r="O6" s="128" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="105" customHeight="1">
+    <row r="7" spans="1:15" ht="105" customHeight="1">
       <c r="A7" s="231">
         <v>13</v>
       </c>
@@ -23918,11 +24179,12 @@
       </c>
       <c r="L7" s="156"/>
       <c r="M7" s="203"/>
-      <c r="N7" s="137" t="s">
+      <c r="N7" s="203"/>
+      <c r="O7" s="137" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="42" customHeight="1">
+    <row r="8" spans="1:15" ht="42" customHeight="1">
       <c r="A8" s="231">
         <v>14</v>
       </c>
@@ -23956,11 +24218,12 @@
       </c>
       <c r="L8" s="156"/>
       <c r="M8" s="203"/>
-      <c r="N8" s="214" t="s">
+      <c r="N8" s="203"/>
+      <c r="O8" s="214" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="167.25" customHeight="1">
+    <row r="9" spans="1:15" ht="167.25" customHeight="1">
       <c r="A9" s="231">
         <v>15</v>
       </c>
@@ -23996,11 +24259,12 @@
       </c>
       <c r="L9" s="156"/>
       <c r="M9" s="203"/>
-      <c r="N9" s="214" t="s">
+      <c r="N9" s="203"/>
+      <c r="O9" s="214" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="63.75" customHeight="1">
+    <row r="10" spans="1:15" ht="63.75" customHeight="1">
       <c r="A10" s="231">
         <v>16</v>
       </c>
@@ -24033,11 +24297,11 @@
         <v>502</v>
       </c>
       <c r="L10" s="156"/>
-      <c r="N10" s="214" t="s">
+      <c r="O10" s="214" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="252.75" customHeight="1">
+    <row r="11" spans="1:15" ht="252.75" customHeight="1">
       <c r="A11" s="231">
         <v>17</v>
       </c>
@@ -24068,11 +24332,11 @@
         <v>355</v>
       </c>
       <c r="L11" s="137"/>
-      <c r="N11" s="128" t="s">
+      <c r="O11" s="128" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="116" customFormat="1" ht="69.75" customHeight="1">
+    <row r="12" spans="1:15" s="116" customFormat="1" ht="69.75" customHeight="1">
       <c r="A12" s="231">
         <v>18</v>
       </c>
@@ -24106,11 +24370,12 @@
       </c>
       <c r="L12" s="120"/>
       <c r="M12" s="205"/>
-      <c r="N12" s="202" t="s">
+      <c r="N12" s="205"/>
+      <c r="O12" s="202" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="74.25" customHeight="1">
+    <row r="13" spans="1:15" ht="74.25" customHeight="1">
       <c r="A13" s="231">
         <v>19</v>
       </c>
@@ -24141,11 +24406,11 @@
         <v>514</v>
       </c>
       <c r="L13" s="137"/>
-      <c r="N13" s="137" t="s">
+      <c r="O13" s="137" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="102.75" customHeight="1">
+    <row r="14" spans="1:15" ht="102.75" customHeight="1">
       <c r="A14" s="231">
         <v>20</v>
       </c>
@@ -24178,11 +24443,11 @@
         <v>356</v>
       </c>
       <c r="L14" s="137"/>
-      <c r="N14" s="137" t="s">
+      <c r="O14" s="137" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="47.25">
+    <row r="15" spans="1:15" ht="47.25">
       <c r="A15" s="231">
         <v>49</v>
       </c>
@@ -24211,11 +24476,11 @@
         <v>388</v>
       </c>
       <c r="L15" s="137"/>
-      <c r="N15" s="137" t="s">
+      <c r="O15" s="137" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="116" customFormat="1">
+    <row r="16" spans="1:15" s="116" customFormat="1">
       <c r="A16" s="231">
         <v>50</v>
       </c>
@@ -24245,11 +24510,12 @@
       </c>
       <c r="L16" s="120"/>
       <c r="M16" s="205"/>
-      <c r="N16" s="120" t="s">
+      <c r="N16" s="205"/>
+      <c r="O16" s="120" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="116" customFormat="1">
+    <row r="17" spans="1:15" s="116" customFormat="1">
       <c r="A17" s="231">
         <v>51</v>
       </c>
@@ -24279,11 +24545,12 @@
       </c>
       <c r="L17" s="120"/>
       <c r="M17" s="205"/>
-      <c r="N17" s="120" t="s">
+      <c r="N17" s="205"/>
+      <c r="O17" s="120" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="31.5">
+    <row r="18" spans="1:15" ht="31.5">
       <c r="A18" s="231">
         <v>53</v>
       </c>
@@ -24314,11 +24581,11 @@
         <v>530</v>
       </c>
       <c r="L18" s="137"/>
-      <c r="N18" s="137" t="s">
+      <c r="O18" s="137" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="35.25" customHeight="1">
+    <row r="19" spans="1:15" ht="35.25" customHeight="1">
       <c r="A19" s="231">
         <v>54</v>
       </c>
@@ -24349,11 +24616,11 @@
         <v>388</v>
       </c>
       <c r="L19" s="137"/>
-      <c r="N19" s="137" t="s">
+      <c r="O19" s="137" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="120.75" customHeight="1">
+    <row r="20" spans="1:15" ht="120.75" customHeight="1">
       <c r="A20" s="231">
         <v>59</v>
       </c>
@@ -24386,11 +24653,11 @@
         <v>474</v>
       </c>
       <c r="L20" s="137"/>
-      <c r="N20" s="204" t="s">
+      <c r="O20" s="204" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="321" customHeight="1">
+    <row r="21" spans="1:15" ht="321" customHeight="1">
       <c r="A21" s="231">
         <v>60</v>
       </c>
@@ -24423,11 +24690,11 @@
         <v>476</v>
       </c>
       <c r="L21" s="137"/>
-      <c r="N21" s="204" t="s">
+      <c r="O21" s="204" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="113.25" customHeight="1">
+    <row r="22" spans="1:15" ht="113.25" customHeight="1">
       <c r="A22" s="231">
         <v>61</v>
       </c>
@@ -24460,11 +24727,11 @@
         <v>479</v>
       </c>
       <c r="L22" s="137"/>
-      <c r="N22" s="204" t="s">
+      <c r="O22" s="204" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="124.5" customHeight="1">
+    <row r="23" spans="1:15" ht="124.5" customHeight="1">
       <c r="A23" s="231">
         <v>62</v>
       </c>
@@ -24495,14 +24762,13 @@
         <v>480</v>
       </c>
       <c r="L23" s="137"/>
-      <c r="N23" s="204" t="s">
+      <c r="O23" s="204" t="s">
         <v>338</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:N23"/>
   <mergeCells count="13">
-    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -24524,21 +24790,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x01010021BC10BB7BF75241AB8A7EB414E67E67" ma:contentTypeVersion="0" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="0a365666645b5ad36f943cf4cc3a9374">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8f872aa5919130a473c1c9447df8371">
     <xsd:element name="properties">
@@ -24652,17 +24903,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E67D56-66D6-433F-8CBA-F705DAEBB940}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AD5BBE0-A67F-4031-8B14-34B9EF0DCFEC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -24676,17 +24943,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AD5BBE0-A67F-4031-8B14-34B9EF0DCFEC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E67D56-66D6-433F-8CBA-F705DAEBB940}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>